--- a/CuaaQualityRanking.xlsx
+++ b/CuaaQualityRanking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="922" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="922" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2009" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9725" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9725" uniqueCount="857">
   <si>
     <t>学校名称</t>
   </si>
@@ -2458,9 +2458,6 @@
   </si>
   <si>
     <t>北京建筑大学</t>
-  </si>
-  <si>
-    <t>地区</t>
   </si>
   <si>
     <t>社会影响</t>
@@ -47029,7 +47026,7 @@
   </sheetPr>
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A278" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -53980,8 +53977,8 @@
   </sheetPr>
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -53990,7 +53987,7 @@
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -53998,7 +53995,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>790</v>
+        <v>381</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
@@ -54010,7 +54007,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54222,7 +54219,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
@@ -55234,7 +55231,7 @@
     </row>
     <row r="55" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>11</v>
@@ -55303,7 +55300,7 @@
     </row>
     <row r="58" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>127</v>
@@ -55372,7 +55369,7 @@
     </row>
     <row r="61" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>127</v>
@@ -55464,7 +55461,7 @@
     </row>
     <row r="65" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>127</v>
@@ -55970,7 +55967,7 @@
     </row>
     <row r="87" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>11</v>
@@ -60087,7 +60084,7 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>113</v>
@@ -60202,7 +60199,7 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>113</v>
@@ -60570,7 +60567,7 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>113</v>
@@ -60931,7 +60928,7 @@
   </sheetPr>
   <dimension ref="A1:G716"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -60965,7 +60962,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61154,7 +61151,7 @@
     </row>
     <row r="10" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>11</v>
@@ -62212,7 +62209,7 @@
     </row>
     <row r="56" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="14" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>11</v>
@@ -62557,7 +62554,7 @@
     </row>
     <row r="71" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>127</v>
@@ -62580,7 +62577,7 @@
     </row>
     <row r="72" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>127</v>
@@ -62626,7 +62623,7 @@
     </row>
     <row r="74" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="14" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>127</v>
@@ -62810,7 +62807,7 @@
     </row>
     <row r="82" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="14" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>11</v>
@@ -67203,7 +67200,7 @@
     </row>
     <row r="273" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B273" s="14" t="s">
         <v>113</v>
@@ -67318,7 +67315,7 @@
     </row>
     <row r="278" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B278" s="14" t="s">
         <v>11</v>
@@ -67456,7 +67453,7 @@
     </row>
     <row r="284" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="14" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B284" s="14" t="s">
         <v>113</v>
@@ -67893,7 +67890,7 @@
     </row>
     <row r="303" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="14" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B303" s="14" t="s">
         <v>113</v>
@@ -68031,7 +68028,7 @@
     </row>
     <row r="309" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B309" s="14" t="s">
         <v>11</v>
@@ -68146,7 +68143,7 @@
     </row>
     <row r="314" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B314" s="14" t="s">
         <v>108</v>
@@ -68353,7 +68350,7 @@
     </row>
     <row r="323" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B323" s="14" t="s">
         <v>127</v>
@@ -68675,7 +68672,7 @@
     </row>
     <row r="337" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B337" s="14" t="s">
         <v>127</v>
@@ -68721,7 +68718,7 @@
     </row>
     <row r="339" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B339" s="14" t="s">
         <v>11</v>
@@ -68882,7 +68879,7 @@
     </row>
     <row r="346" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B346" s="14" t="s">
         <v>11</v>
@@ -68905,7 +68902,7 @@
     </row>
     <row r="347" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B347" s="14" t="s">
         <v>127</v>
@@ -69204,7 +69201,7 @@
     </row>
     <row r="360" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B360" s="14" t="s">
         <v>108</v>
@@ -69365,7 +69362,7 @@
     </row>
     <row r="367" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B367" s="14" t="s">
         <v>11</v>
@@ -69434,7 +69431,7 @@
     </row>
     <row r="370" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B370" s="14" t="s">
         <v>11</v>
@@ -70630,7 +70627,7 @@
     </row>
     <row r="422" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="14" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B422" s="14" t="s">
         <v>113</v>
@@ -70676,7 +70673,7 @@
     </row>
     <row r="424" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B424" s="14" t="s">
         <v>32</v>
@@ -70699,7 +70696,7 @@
     </row>
     <row r="425" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B425" s="14" t="s">
         <v>127</v>
@@ -70998,7 +70995,7 @@
     </row>
     <row r="438" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B438" s="14" t="s">
         <v>32</v>
@@ -71021,7 +71018,7 @@
     </row>
     <row r="439" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B439" s="14" t="s">
         <v>127</v>
@@ -71044,7 +71041,7 @@
     </row>
     <row r="440" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B440" s="14" t="s">
         <v>9</v>
@@ -71366,7 +71363,7 @@
     </row>
     <row r="454" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="14" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B454" s="14" t="s">
         <v>11</v>
@@ -71389,7 +71386,7 @@
     </row>
     <row r="455" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B455" s="14" t="s">
         <v>11</v>
@@ -71458,7 +71455,7 @@
     </row>
     <row r="458" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B458" s="14" t="s">
         <v>11</v>
@@ -71481,7 +71478,7 @@
     </row>
     <row r="459" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="14" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B459" s="14" t="s">
         <v>11</v>
@@ -72125,7 +72122,7 @@
     </row>
     <row r="487" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="14" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B487" s="14" t="s">
         <v>113</v>
@@ -72194,7 +72191,7 @@
     </row>
     <row r="490" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B490" s="14" t="s">
         <v>127</v>
@@ -72263,7 +72260,7 @@
     </row>
     <row r="493" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="14" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B493" s="14" t="s">
         <v>32</v>
@@ -72516,7 +72513,7 @@
     </row>
     <row r="504" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B504" s="14" t="s">
         <v>11</v>
@@ -73965,7 +73962,7 @@
     </row>
     <row r="567" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B567" s="14" t="s">
         <v>11</v>
@@ -74126,7 +74123,7 @@
     </row>
     <row r="574" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="14" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B574" s="14" t="s">
         <v>11</v>
@@ -74931,7 +74928,7 @@
     </row>
     <row r="609" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B609" s="14" t="s">
         <v>9</v>
@@ -75023,7 +75020,7 @@
     </row>
     <row r="613" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="14" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B613" s="14" t="s">
         <v>50</v>
@@ -75184,7 +75181,7 @@
     </row>
     <row r="620" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="14" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B620" s="14" t="s">
         <v>9</v>
@@ -75552,7 +75549,7 @@
     </row>
     <row r="636" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B636" s="14" t="s">
         <v>9</v>
@@ -75782,7 +75779,7 @@
     </row>
     <row r="646" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B646" s="14" t="s">
         <v>11</v>
@@ -75805,7 +75802,7 @@
     </row>
     <row r="647" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="14" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B647" s="14" t="s">
         <v>32</v>
@@ -75943,7 +75940,7 @@
     </row>
     <row r="653" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="14" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B653" s="14" t="s">
         <v>11</v>
@@ -76012,7 +76009,7 @@
     </row>
     <row r="656" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B656" s="14" t="s">
         <v>32</v>
@@ -76104,7 +76101,7 @@
     </row>
     <row r="660" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="14" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B660" s="14" t="s">
         <v>113</v>
@@ -76196,7 +76193,7 @@
     </row>
     <row r="664" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B664" s="14" t="s">
         <v>127</v>
@@ -76380,7 +76377,7 @@
     </row>
     <row r="672" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B672" s="14" t="s">
         <v>32</v>
@@ -76449,7 +76446,7 @@
     </row>
     <row r="675" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="14" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B675" s="14" t="s">
         <v>113</v>
@@ -76472,7 +76469,7 @@
     </row>
     <row r="676" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="14" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B676" s="14" t="s">
         <v>32</v>
@@ -76633,7 +76630,7 @@
     </row>
     <row r="683" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B683" s="14" t="s">
         <v>32</v>
@@ -76702,7 +76699,7 @@
     </row>
     <row r="686" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="14" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B686" s="14" t="s">
         <v>9</v>
@@ -76794,7 +76791,7 @@
     </row>
     <row r="690" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="14" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B690" s="14" t="s">
         <v>9</v>
@@ -76817,7 +76814,7 @@
     </row>
     <row r="691" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="14" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B691" s="14" t="s">
         <v>9</v>
@@ -77024,7 +77021,7 @@
     </row>
     <row r="700" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B700" s="14" t="s">
         <v>50</v>
@@ -77093,7 +77090,7 @@
     </row>
     <row r="703" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="14" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B703" s="14" t="s">
         <v>32</v>
@@ -77116,7 +77113,7 @@
     </row>
     <row r="704" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B704" s="14" t="s">
         <v>127</v>
@@ -77139,7 +77136,7 @@
     </row>
     <row r="705" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B705" s="14" t="s">
         <v>113</v>
@@ -77162,7 +77159,7 @@
     </row>
     <row r="706" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="14" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B706" s="14" t="s">
         <v>32</v>
@@ -77185,7 +77182,7 @@
     </row>
     <row r="707" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B707" s="14" t="s">
         <v>11</v>
@@ -77208,7 +77205,7 @@
     </row>
     <row r="708" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="14" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B708" s="14" t="s">
         <v>32</v>
@@ -77231,7 +77228,7 @@
     </row>
     <row r="709" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="14" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B709" s="14" t="s">
         <v>127</v>
@@ -77254,7 +77251,7 @@
     </row>
     <row r="710" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="14" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B710" s="14" t="s">
         <v>127</v>
@@ -77300,7 +77297,7 @@
     </row>
     <row r="712" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="14" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B712" s="14" t="s">
         <v>113</v>
@@ -77323,7 +77320,7 @@
     </row>
     <row r="713" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="14" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B713" s="14" t="s">
         <v>11</v>
@@ -77346,7 +77343,7 @@
     </row>
     <row r="714" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="14" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B714" s="14" t="s">
         <v>11</v>
@@ -77369,7 +77366,7 @@
     </row>
     <row r="715" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="14" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B715" s="14" t="s">
         <v>32</v>

--- a/CuaaQualityRanking.xlsx
+++ b/CuaaQualityRanking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="922" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="922" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2009" sheetId="1" state="visible" r:id="rId2"/>
@@ -1251,6 +1251,9 @@
     <t>语言</t>
   </si>
   <si>
+    <t>温州医科大学</t>
+  </si>
+  <si>
     <t>江苏师范大学</t>
   </si>
   <si>
@@ -1317,1210 +1320,1207 @@
     <t>西南林业大学</t>
   </si>
   <si>
+    <t>广州医科大学</t>
+  </si>
+  <si>
+    <t>华北水利水电学院</t>
+  </si>
+  <si>
+    <t>遵义医学院</t>
+  </si>
+  <si>
+    <t>北方工业大学</t>
+  </si>
+  <si>
+    <t>广西中医药大学</t>
+  </si>
+  <si>
+    <t>齐齐哈尔大学</t>
+  </si>
+  <si>
+    <t>河南中医学院</t>
+  </si>
+  <si>
+    <t>泸州医学院</t>
+  </si>
+  <si>
+    <t>内蒙古民族大学</t>
+  </si>
+  <si>
+    <t>天津商业大学</t>
+  </si>
+  <si>
+    <t>北华大学</t>
+  </si>
+  <si>
+    <t>广东商学院</t>
+  </si>
+  <si>
+    <t>绍兴文理学院</t>
+  </si>
+  <si>
+    <t>徐州医学院</t>
+  </si>
+  <si>
+    <t>延安大学</t>
+  </si>
+  <si>
+    <t>北京第二外国语学院</t>
+  </si>
+  <si>
+    <t>长春中医药大学</t>
+  </si>
+  <si>
+    <t>大连民族学院</t>
+  </si>
+  <si>
+    <t>广东药学院</t>
+  </si>
+  <si>
+    <t>内蒙古医科大学</t>
+  </si>
+  <si>
+    <t>四川外语学院</t>
+  </si>
+  <si>
+    <t>西藏民族学院</t>
+  </si>
+  <si>
+    <t>浙江海洋学院</t>
+  </si>
+  <si>
+    <t>甘肃中医学院</t>
+  </si>
+  <si>
+    <t>贵州财经大学</t>
+  </si>
+  <si>
+    <t>贵州民族大学</t>
+  </si>
+  <si>
+    <t>沈阳大学</t>
+  </si>
+  <si>
+    <t>中国人民公安大学</t>
+  </si>
+  <si>
+    <t>安徽建筑工业学院</t>
+  </si>
+  <si>
+    <t>沈阳化工大学</t>
+  </si>
+  <si>
+    <t>天津城市建设学院</t>
+  </si>
+  <si>
+    <t>中原工学院</t>
+  </si>
+  <si>
+    <t>北方民族大学</t>
+  </si>
+  <si>
+    <t>湖南商学院</t>
+  </si>
+  <si>
+    <t>淮北师范大学</t>
+  </si>
+  <si>
+    <t>辽宁医学院</t>
+  </si>
+  <si>
+    <t>苏州科技学院</t>
+  </si>
+  <si>
+    <t>中国青年政治学院</t>
+  </si>
+  <si>
+    <t>北京联合大学</t>
+  </si>
+  <si>
+    <t>赣南师范学院</t>
+  </si>
+  <si>
+    <t>广西工学院</t>
+  </si>
+  <si>
+    <t>辽宁石油化工大学</t>
+  </si>
+  <si>
+    <t>潍坊医学院</t>
+  </si>
+  <si>
+    <t>新乡医学院</t>
+  </si>
+  <si>
+    <t>安徽工程大学</t>
+  </si>
+  <si>
+    <t>北京信息科技大学</t>
+  </si>
+  <si>
+    <t>湖州师范学院</t>
+  </si>
+  <si>
+    <t>吉林财经大学</t>
+  </si>
+  <si>
+    <t>吉林化工学院</t>
+  </si>
+  <si>
+    <t>洛阳师范学院</t>
+  </si>
+  <si>
+    <t>山东工商学院</t>
+  </si>
+  <si>
+    <t>上海电力学院</t>
+  </si>
+  <si>
+    <t>上海对外贸易学院</t>
+  </si>
+  <si>
+    <t>沈阳理工大学</t>
+  </si>
+  <si>
+    <t>信阳师范学院</t>
+  </si>
+  <si>
+    <t>大理学院</t>
+  </si>
+  <si>
+    <t>大连外国语学院</t>
+  </si>
+  <si>
+    <t>广东海洋大学</t>
+  </si>
+  <si>
+    <t>贵阳中医学院</t>
+  </si>
+  <si>
+    <t>桂林医学院</t>
+  </si>
+  <si>
+    <t>黑龙江科技学院</t>
+  </si>
+  <si>
+    <t>南京审计学院</t>
+  </si>
+  <si>
+    <t>泰山医学院</t>
+  </si>
+  <si>
+    <t>西安邮电大学</t>
+  </si>
+  <si>
+    <t>西藏藏医学院</t>
+  </si>
+  <si>
+    <t>新疆财经大学</t>
+  </si>
+  <si>
+    <t>安庆师范学院</t>
+  </si>
+  <si>
+    <t>蚌埠医学院</t>
+  </si>
+  <si>
+    <t>北京农学院</t>
+  </si>
+  <si>
+    <t>大连海洋大学</t>
+  </si>
+  <si>
+    <t>阜阳师范学院</t>
+  </si>
+  <si>
+    <t>河北工程大学</t>
+  </si>
+  <si>
+    <t>湖北民族学院</t>
+  </si>
+  <si>
+    <t>兰州商学院</t>
+  </si>
+  <si>
+    <t>辽宁工业大学</t>
+  </si>
+  <si>
+    <t>临沂大学</t>
+  </si>
+  <si>
+    <t>陕西中医学院</t>
+  </si>
+  <si>
+    <t>商丘师范学院</t>
+  </si>
+  <si>
+    <t>上海应用技术学院</t>
+  </si>
+  <si>
+    <t>西安外国语大学</t>
+  </si>
+  <si>
+    <t>云南中医学院</t>
+  </si>
+  <si>
+    <t>郑州航空工业管理学院</t>
+  </si>
+  <si>
+    <t>重庆文理学院</t>
+  </si>
+  <si>
+    <t>北京服装学院</t>
+  </si>
+  <si>
+    <t>滨州医学院</t>
+  </si>
+  <si>
+    <t>成都信息工程学院</t>
+  </si>
+  <si>
+    <t>海南医学院</t>
+  </si>
+  <si>
+    <t>河南科技学院</t>
+  </si>
+  <si>
+    <t>湖南理工学院</t>
+  </si>
+  <si>
+    <t>湖南文理学院</t>
+  </si>
+  <si>
+    <t>吉林建筑工程学院</t>
+  </si>
+  <si>
+    <t>江汉大学</t>
+  </si>
+  <si>
+    <t>昆明学院</t>
+  </si>
+  <si>
+    <t>皖南医学院</t>
+  </si>
+  <si>
+    <t>长春师范学院</t>
+  </si>
+  <si>
+    <t>湖北经济学院</t>
+  </si>
+  <si>
+    <t>江苏技术师范学院</t>
+  </si>
+  <si>
+    <t>江西科技师范大学</t>
+  </si>
+  <si>
+    <t>井冈山大学</t>
+  </si>
+  <si>
+    <t>丽水学院</t>
+  </si>
+  <si>
+    <t>宁波工程学院</t>
+  </si>
+  <si>
+    <t>石家庄经济学院</t>
+  </si>
+  <si>
+    <t>天津外国语大学</t>
+  </si>
+  <si>
+    <t>天津职业技术师范大学</t>
+  </si>
+  <si>
+    <t>漳州师范学院</t>
+  </si>
+  <si>
+    <t>北京印刷学院</t>
+  </si>
+  <si>
+    <t>常州工学院</t>
+  </si>
+  <si>
+    <t>川北医学院</t>
+  </si>
+  <si>
+    <t>甘肃政法学院</t>
+  </si>
+  <si>
+    <t>广西财经学院</t>
+  </si>
+  <si>
+    <t>衡阳师范学院</t>
+  </si>
+  <si>
+    <t>淮阴师范学院</t>
+  </si>
+  <si>
+    <t>嘉兴学院</t>
+  </si>
+  <si>
+    <t>嘉应学院</t>
+  </si>
+  <si>
+    <t>乐山师范学院</t>
+  </si>
+  <si>
+    <t>内蒙古财经大学</t>
+  </si>
+  <si>
+    <t>西安财经学院</t>
+  </si>
+  <si>
+    <t>仲恺农业工程学院</t>
+  </si>
+  <si>
+    <t>重庆科技学院</t>
+  </si>
+  <si>
+    <t>重庆三峡学院</t>
+  </si>
+  <si>
+    <t>安阳师范学院</t>
+  </si>
+  <si>
+    <t>常熟理工学院</t>
+  </si>
+  <si>
+    <t>合肥师范学院</t>
+  </si>
+  <si>
+    <t>湖北师范学院</t>
+  </si>
+  <si>
+    <t>九江学院</t>
+  </si>
+  <si>
+    <t>南京工程学院</t>
+  </si>
+  <si>
+    <t>山西中医学院</t>
+  </si>
+  <si>
+    <t>上海金融学院</t>
+  </si>
+  <si>
+    <t>邵阳学院</t>
+  </si>
+  <si>
+    <t>皖西学院</t>
+  </si>
+  <si>
+    <t>五邑大学</t>
+  </si>
+  <si>
+    <t>盐城师范学院</t>
+  </si>
+  <si>
+    <t>伊犁师范学院</t>
+  </si>
+  <si>
+    <t>浙江科技学院</t>
+  </si>
+  <si>
+    <t>东莞理工学院</t>
+  </si>
+  <si>
+    <t>福建工程学院</t>
+  </si>
+  <si>
+    <t>赣南医学院</t>
+  </si>
+  <si>
+    <t>广东金融学院</t>
+  </si>
+  <si>
+    <t>湖南科技学院</t>
+  </si>
+  <si>
+    <t>金陵科技学院</t>
+  </si>
+  <si>
+    <t>南阳师范学院</t>
+  </si>
+  <si>
+    <t>陕西理工学院</t>
+  </si>
+  <si>
+    <t>上海第二工业大学</t>
+  </si>
+  <si>
+    <t>四川理工学院</t>
+  </si>
+  <si>
+    <t>天津农学院</t>
+  </si>
+  <si>
+    <t>天水师范学院</t>
+  </si>
+  <si>
+    <t>厦门理工学院</t>
+  </si>
+  <si>
+    <t>湘南学院</t>
+  </si>
+  <si>
+    <t>浙江万里学院</t>
+  </si>
+  <si>
+    <t>宝鸡文理学院</t>
+  </si>
+  <si>
+    <t>北京电子科技学院</t>
+  </si>
+  <si>
+    <t>北京石油化工学院</t>
+  </si>
+  <si>
+    <t>长江师范学院</t>
+  </si>
+  <si>
+    <t>长沙学院</t>
+  </si>
+  <si>
+    <t>广东技术师范学院</t>
+  </si>
+  <si>
+    <t>贵阳学院</t>
+  </si>
+  <si>
+    <t>河西学院</t>
+  </si>
+  <si>
+    <t>红河学院</t>
+  </si>
+  <si>
+    <t>湖南城市学院</t>
+  </si>
+  <si>
+    <t>湖南工程学院</t>
+  </si>
+  <si>
+    <t>湖南人文科技学院</t>
+  </si>
+  <si>
+    <t>怀化学院</t>
+  </si>
+  <si>
+    <t>惠州学院</t>
+  </si>
+  <si>
+    <t>济宁医学院</t>
+  </si>
+  <si>
+    <t>喀什师范学院</t>
+  </si>
+  <si>
+    <t>兰州城市学院</t>
+  </si>
+  <si>
+    <t>绵阳师范学院</t>
+  </si>
+  <si>
+    <t>牡丹江师范学院</t>
+  </si>
+  <si>
+    <t>南昌工程学院</t>
+  </si>
+  <si>
+    <t>曲靖师范学院</t>
+  </si>
+  <si>
+    <t>山西大同大学</t>
+  </si>
+  <si>
+    <t>上海立信会计学院</t>
+  </si>
+  <si>
+    <t>韶关学院</t>
+  </si>
+  <si>
+    <t>沈阳医学院</t>
+  </si>
+  <si>
+    <t>台州学院</t>
+  </si>
+  <si>
+    <t>右江民族医学院</t>
+  </si>
+  <si>
+    <t>湛江师范学院</t>
+  </si>
+  <si>
+    <t>中国劳动关系学院</t>
+  </si>
+  <si>
+    <t>安康学院</t>
+  </si>
+  <si>
+    <t>北华航天工业学院</t>
+  </si>
+  <si>
+    <t>北京物资学院</t>
+  </si>
+  <si>
+    <t>长春工程学院</t>
+  </si>
+  <si>
+    <t>成都医学院</t>
+  </si>
+  <si>
+    <t>赤峰学院</t>
+  </si>
+  <si>
+    <t>德州学院</t>
+  </si>
+  <si>
+    <t>佛山科学技术学院</t>
+  </si>
+  <si>
+    <t>甘肃民族师范学院</t>
+  </si>
+  <si>
+    <t>贵州师范学院</t>
+  </si>
+  <si>
+    <t>合肥学院</t>
+  </si>
+  <si>
+    <t>湖北科技学院</t>
+  </si>
+  <si>
+    <t>湖北文理学院</t>
+  </si>
+  <si>
+    <t>淮海工学院</t>
+  </si>
+  <si>
+    <t>淮阴工学院</t>
+  </si>
+  <si>
+    <t>黄冈师范学院</t>
+  </si>
+  <si>
+    <t>吉林医药学院</t>
+  </si>
+  <si>
+    <t>闽江学院</t>
+  </si>
+  <si>
+    <t>南京晓庄学院</t>
+  </si>
+  <si>
+    <t>山东交通学院</t>
+  </si>
+  <si>
+    <t>上海电机学院</t>
+  </si>
+  <si>
+    <t>上海政法学院</t>
+  </si>
+  <si>
+    <t>石家庄学院</t>
+  </si>
+  <si>
+    <t>太原师范学院</t>
+  </si>
+  <si>
+    <t>铜陵学院</t>
+  </si>
+  <si>
+    <t>潍坊学院</t>
+  </si>
+  <si>
+    <t>渭南师范学院</t>
+  </si>
+  <si>
+    <t>西昌学院</t>
+  </si>
+  <si>
+    <t>盐城工学院</t>
+  </si>
+  <si>
+    <t>宜宾学院</t>
+  </si>
+  <si>
+    <t>玉林师范学院</t>
+  </si>
+  <si>
+    <t>运城学院</t>
+  </si>
+  <si>
+    <t>中国民用航空飞行学院</t>
+  </si>
+  <si>
+    <t>中国刑事警察学院</t>
+  </si>
+  <si>
+    <t>中华女子学院</t>
+  </si>
+  <si>
+    <t>安徽科技学院</t>
+  </si>
+  <si>
+    <t>安顺学院</t>
+  </si>
+  <si>
+    <t>百色学院</t>
+  </si>
+  <si>
+    <t>毕节学院</t>
+  </si>
+  <si>
+    <t>滨州学院</t>
+  </si>
+  <si>
+    <t>长春大学</t>
+  </si>
+  <si>
+    <t>长治医学院</t>
+  </si>
+  <si>
+    <t>成都学院</t>
+  </si>
+  <si>
+    <t>承德医学院</t>
+  </si>
+  <si>
+    <t>大庆师范学院</t>
+  </si>
+  <si>
+    <t>韩山师范学院</t>
+  </si>
+  <si>
+    <t>河北北方学院</t>
+  </si>
+  <si>
+    <t>河北科技师范学院</t>
+  </si>
+  <si>
+    <t>河池学院</t>
+  </si>
+  <si>
+    <t>湖北理工学院</t>
+  </si>
+  <si>
+    <t>湖北汽车工业学院</t>
+  </si>
+  <si>
+    <t>湖南第一师范学院</t>
+  </si>
+  <si>
+    <t>淮南师范学院</t>
+  </si>
+  <si>
+    <t>吉林农业科技学院</t>
+  </si>
+  <si>
+    <t>集宁师范学院</t>
+  </si>
+  <si>
+    <t>晋中学院</t>
+  </si>
+  <si>
+    <t>凯里学院</t>
+  </si>
+  <si>
+    <t>廊坊师范学院</t>
+  </si>
+  <si>
+    <t>陇东学院</t>
+  </si>
+  <si>
+    <t>牡丹江医学院</t>
+  </si>
+  <si>
+    <t>齐齐哈尔医学院</t>
+  </si>
+  <si>
+    <t>黔南民族师范学院</t>
+  </si>
+  <si>
+    <t>泉州师范学院</t>
+  </si>
+  <si>
+    <t>上海海关学院</t>
+  </si>
+  <si>
+    <t>上饶师范学院</t>
+  </si>
+  <si>
+    <t>沈阳工程学院</t>
+  </si>
+  <si>
+    <t>四川文理学院</t>
+  </si>
+  <si>
+    <t>宿州学院</t>
+  </si>
+  <si>
+    <t>通化师范学院</t>
+  </si>
+  <si>
+    <t>西安文理学院</t>
+  </si>
+  <si>
+    <t>西安医学院</t>
+  </si>
+  <si>
+    <t>徐州工程学院</t>
+  </si>
+  <si>
+    <t>许昌学院</t>
+  </si>
+  <si>
+    <t>宜春学院</t>
+  </si>
+  <si>
+    <t>玉溪师范学院</t>
+  </si>
+  <si>
+    <t>云南警官学院</t>
+  </si>
+  <si>
+    <t>肇庆学院</t>
+  </si>
+  <si>
+    <t>中国人民武装警察部队学院</t>
+  </si>
+  <si>
+    <t>遵义师范学院</t>
+  </si>
+  <si>
+    <t>安阳工学院</t>
+  </si>
+  <si>
+    <t>鞍山师范学院</t>
+  </si>
+  <si>
+    <t>白城师范学院</t>
+  </si>
+  <si>
+    <t>保山学院</t>
+  </si>
+  <si>
+    <t>北京警察学院</t>
+  </si>
+  <si>
+    <t>昌吉学院</t>
+  </si>
+  <si>
+    <t>长治学院</t>
+  </si>
+  <si>
+    <t>巢湖学院</t>
+  </si>
+  <si>
+    <t>成都工业学院</t>
+  </si>
+  <si>
+    <t>池州学院</t>
+  </si>
+  <si>
+    <t>滁州学院</t>
+  </si>
+  <si>
+    <t>楚雄师范学院</t>
+  </si>
+  <si>
+    <t>防灾科技学院</t>
+  </si>
+  <si>
+    <t>广东石油化工学院</t>
+  </si>
+  <si>
+    <t>广西民族师范学院</t>
+  </si>
+  <si>
+    <t>哈尔滨学院</t>
+  </si>
+  <si>
+    <t>河北金融学院</t>
+  </si>
+  <si>
+    <t>河南工程学院</t>
+  </si>
+  <si>
+    <t>菏泽学院</t>
+  </si>
+  <si>
+    <t>贺州学院</t>
+  </si>
+  <si>
+    <t>黑河学院</t>
+  </si>
+  <si>
+    <t>呼和浩特民族学院</t>
+  </si>
+  <si>
+    <t>呼伦贝尔学院</t>
+  </si>
+  <si>
+    <t>湖北工程学院</t>
+  </si>
+  <si>
+    <t>湖北警官学院</t>
+  </si>
+  <si>
+    <t>湖北医药学院</t>
+  </si>
+  <si>
+    <t>湖南财政经济学院</t>
+  </si>
+  <si>
+    <t>湖南工学院</t>
+  </si>
+  <si>
+    <t>华北科技学院</t>
+  </si>
+  <si>
+    <t>黄淮学院</t>
+  </si>
+  <si>
+    <t>黄山学院</t>
+  </si>
+  <si>
+    <t>吉林工商学院</t>
+  </si>
+  <si>
+    <t>济宁学院</t>
+  </si>
+  <si>
+    <t>江苏警官学院</t>
+  </si>
+  <si>
+    <t>六盘水师范学院</t>
+  </si>
+  <si>
+    <t>洛阳理工学院</t>
+  </si>
+  <si>
+    <t>内江师范学院</t>
+  </si>
+  <si>
+    <t>南阳理工学院</t>
+  </si>
+  <si>
+    <t>攀枝花学院</t>
+  </si>
+  <si>
+    <t>莆田学院</t>
+  </si>
+  <si>
+    <t>齐鲁师范学院</t>
+  </si>
+  <si>
+    <t>钦州学院</t>
+  </si>
+  <si>
+    <t>琼州学院</t>
+  </si>
+  <si>
+    <t>衢州学院</t>
+  </si>
+  <si>
+    <t>三明学院</t>
+  </si>
+  <si>
+    <t>山东警察学院</t>
+  </si>
+  <si>
+    <t>上海商学院</t>
+  </si>
+  <si>
+    <t>四川警察学院</t>
+  </si>
+  <si>
+    <t>四川民族学院</t>
+  </si>
+  <si>
+    <t>泰山学院</t>
+  </si>
+  <si>
+    <t>铜仁学院</t>
+  </si>
+  <si>
+    <t>文山学院</t>
+  </si>
+  <si>
+    <t>梧州学院</t>
+  </si>
+  <si>
+    <t>武夷学院</t>
+  </si>
+  <si>
+    <t>咸阳师范学院</t>
+  </si>
+  <si>
+    <t>忻州师范学院</t>
+  </si>
+  <si>
+    <t>兴义民族师范学院</t>
+  </si>
+  <si>
+    <t>邢台学院</t>
+  </si>
+  <si>
+    <t>枣庄学院</t>
+  </si>
+  <si>
+    <t>浙江警察学院</t>
+  </si>
+  <si>
+    <t>浙江外国语学院</t>
+  </si>
+  <si>
+    <t>郑州师范学院</t>
+  </si>
+  <si>
+    <t>中央司法警官学院</t>
+  </si>
+  <si>
+    <t>周口师范学院</t>
+  </si>
+  <si>
+    <t>蚌埠学院</t>
+  </si>
+  <si>
+    <t>保定学院</t>
+  </si>
+  <si>
+    <t>沧州师范学院</t>
+  </si>
+  <si>
+    <t>成都师范学院</t>
+  </si>
+  <si>
+    <t>福建江夏学院</t>
+  </si>
+  <si>
+    <t>福建警察学院</t>
+  </si>
+  <si>
+    <t>公安海警学院</t>
+  </si>
+  <si>
+    <t>广东第二师范学院</t>
+  </si>
+  <si>
+    <t>广东警官学院</t>
+  </si>
+  <si>
+    <t>桂林航天工业学院</t>
+  </si>
+  <si>
+    <t>哈尔滨金融学院</t>
+  </si>
+  <si>
+    <t>邯郸学院</t>
+  </si>
+  <si>
+    <t>河北建筑工程学院</t>
+  </si>
+  <si>
+    <t>河北民族师范学院</t>
+  </si>
+  <si>
+    <t>河南城建学院</t>
+  </si>
+  <si>
+    <t>河南警察学院</t>
+  </si>
+  <si>
+    <t>河套学院</t>
+  </si>
+  <si>
+    <t>黑龙江工程学院</t>
+  </si>
+  <si>
+    <t>衡水学院</t>
+  </si>
+  <si>
+    <t>湖北第二师范学院</t>
+  </si>
+  <si>
+    <t>湖南警察学院</t>
+  </si>
+  <si>
+    <t>湖南女子学院</t>
+  </si>
+  <si>
+    <t>吉林工程技术师范学院</t>
+  </si>
+  <si>
+    <t>吉林警察学院</t>
+  </si>
+  <si>
+    <t>江西警察学院</t>
+  </si>
+  <si>
+    <t>荆楚理工学院</t>
+  </si>
+  <si>
+    <t>兰州工业学院</t>
+  </si>
+  <si>
+    <t>辽东学院</t>
+  </si>
+  <si>
+    <t>辽宁科技学院</t>
+  </si>
+  <si>
+    <t>龙岩学院</t>
+  </si>
+  <si>
+    <t>吕梁学院</t>
+  </si>
+  <si>
+    <t>南京森林警察学院</t>
+  </si>
+  <si>
+    <t>宁德师范学院</t>
+  </si>
+  <si>
+    <t>宁夏师范学院</t>
+  </si>
+  <si>
+    <t>平顶山学院</t>
+  </si>
+  <si>
+    <t>普洱学院</t>
+  </si>
+  <si>
+    <t>山东女子学院</t>
+  </si>
+  <si>
+    <t>山东青年政治学院</t>
+  </si>
+  <si>
+    <t>山东政法学院</t>
+  </si>
+  <si>
+    <t>陕西学前师范学院</t>
+  </si>
+  <si>
+    <t>商洛学院</t>
+  </si>
+  <si>
+    <t>首钢工学院</t>
+  </si>
+  <si>
+    <t>绥化学院</t>
+  </si>
+  <si>
+    <t>太原工业学院</t>
+  </si>
+  <si>
+    <t>唐山师范学院</t>
+  </si>
+  <si>
+    <t>唐山学院</t>
+  </si>
+  <si>
+    <t>西安航空学院</t>
+  </si>
+  <si>
+    <t>新疆工程学院</t>
+  </si>
+  <si>
+    <t>新疆警察学院</t>
+  </si>
+  <si>
+    <t>新乡学院</t>
+  </si>
+  <si>
+    <t>新余学院</t>
+  </si>
+  <si>
+    <t>榆林学院</t>
+  </si>
+  <si>
+    <t>昭通学院</t>
+  </si>
+  <si>
+    <t>重庆第二师范学院</t>
+  </si>
+  <si>
+    <t>重庆警察学院</t>
+  </si>
+  <si>
+    <t>中国科学技术大学</t>
+  </si>
+  <si>
+    <t>华北水利水电大学</t>
+  </si>
+  <si>
+    <t>北京建筑大学</t>
+  </si>
+  <si>
+    <t>社会影响</t>
+  </si>
+  <si>
+    <t>国防科学技术大学</t>
+  </si>
+  <si>
+    <t>解放军信息工程大学</t>
+  </si>
+  <si>
+    <t>第三军医大学</t>
+  </si>
+  <si>
+    <t>第二军医大学</t>
+  </si>
+  <si>
+    <t>第四军医大学</t>
+  </si>
+  <si>
+    <t>解放军理工大学</t>
+  </si>
+  <si>
+    <t>上海对外经贸大学</t>
+  </si>
+  <si>
+    <t>浙江财经大学</t>
+  </si>
+  <si>
+    <t>广东财经大学</t>
+  </si>
+  <si>
+    <t>成都信息工程大学</t>
+  </si>
+  <si>
+    <t>华北理工大学</t>
+  </si>
+  <si>
+    <t>西藏民族大学</t>
+  </si>
+  <si>
+    <t>贵州医科大学</t>
+  </si>
+  <si>
+    <t>江西中医药大学</t>
+  </si>
+  <si>
+    <t>齐鲁工业大学</t>
+  </si>
+  <si>
+    <t>黑龙江科技大学</t>
+  </si>
+  <si>
+    <t>安徽中医药大学</t>
+  </si>
+  <si>
+    <t>大连民族大学</t>
+  </si>
+  <si>
+    <t>安徽建筑大学</t>
+  </si>
+  <si>
+    <t>武汉轻工大学</t>
+  </si>
+  <si>
     <t>广东医学院</t>
-  </si>
-  <si>
-    <t>华北水利水电学院</t>
-  </si>
-  <si>
-    <t>遵义医学院</t>
-  </si>
-  <si>
-    <t>北方工业大学</t>
-  </si>
-  <si>
-    <t>广西中医药大学</t>
-  </si>
-  <si>
-    <t>齐齐哈尔大学</t>
-  </si>
-  <si>
-    <t>河南中医学院</t>
-  </si>
-  <si>
-    <t>泸州医学院</t>
-  </si>
-  <si>
-    <t>内蒙古民族大学</t>
-  </si>
-  <si>
-    <t>天津商业大学</t>
-  </si>
-  <si>
-    <t>北华大学</t>
-  </si>
-  <si>
-    <t>广东商学院</t>
-  </si>
-  <si>
-    <t>绍兴文理学院</t>
-  </si>
-  <si>
-    <t>徐州医学院</t>
-  </si>
-  <si>
-    <t>延安大学</t>
-  </si>
-  <si>
-    <t>北京第二外国语学院</t>
-  </si>
-  <si>
-    <t>长春中医药大学</t>
-  </si>
-  <si>
-    <t>大连民族学院</t>
-  </si>
-  <si>
-    <t>广东药学院</t>
-  </si>
-  <si>
-    <t>内蒙古医科大学</t>
-  </si>
-  <si>
-    <t>四川外语学院</t>
-  </si>
-  <si>
-    <t>西藏民族学院</t>
-  </si>
-  <si>
-    <t>浙江海洋学院</t>
-  </si>
-  <si>
-    <t>甘肃中医学院</t>
-  </si>
-  <si>
-    <t>贵州财经大学</t>
-  </si>
-  <si>
-    <t>贵州民族大学</t>
-  </si>
-  <si>
-    <t>沈阳大学</t>
-  </si>
-  <si>
-    <t>中国人民公安大学</t>
-  </si>
-  <si>
-    <t>安徽建筑工业学院</t>
-  </si>
-  <si>
-    <t>沈阳化工大学</t>
-  </si>
-  <si>
-    <t>天津城市建设学院</t>
-  </si>
-  <si>
-    <t>中原工学院</t>
-  </si>
-  <si>
-    <t>北方民族大学</t>
-  </si>
-  <si>
-    <t>湖南商学院</t>
-  </si>
-  <si>
-    <t>淮北师范大学</t>
-  </si>
-  <si>
-    <t>辽宁医学院</t>
-  </si>
-  <si>
-    <t>苏州科技学院</t>
-  </si>
-  <si>
-    <t>中国青年政治学院</t>
-  </si>
-  <si>
-    <t>北京联合大学</t>
-  </si>
-  <si>
-    <t>赣南师范学院</t>
-  </si>
-  <si>
-    <t>广西工学院</t>
-  </si>
-  <si>
-    <t>辽宁石油化工大学</t>
-  </si>
-  <si>
-    <t>潍坊医学院</t>
-  </si>
-  <si>
-    <t>新乡医学院</t>
-  </si>
-  <si>
-    <t>安徽工程大学</t>
-  </si>
-  <si>
-    <t>北京信息科技大学</t>
-  </si>
-  <si>
-    <t>湖州师范学院</t>
-  </si>
-  <si>
-    <t>吉林财经大学</t>
-  </si>
-  <si>
-    <t>吉林化工学院</t>
-  </si>
-  <si>
-    <t>洛阳师范学院</t>
-  </si>
-  <si>
-    <t>山东工商学院</t>
-  </si>
-  <si>
-    <t>上海电力学院</t>
-  </si>
-  <si>
-    <t>上海对外贸易学院</t>
-  </si>
-  <si>
-    <t>沈阳理工大学</t>
-  </si>
-  <si>
-    <t>信阳师范学院</t>
-  </si>
-  <si>
-    <t>大理学院</t>
-  </si>
-  <si>
-    <t>大连外国语学院</t>
-  </si>
-  <si>
-    <t>广东海洋大学</t>
-  </si>
-  <si>
-    <t>贵阳中医学院</t>
-  </si>
-  <si>
-    <t>桂林医学院</t>
-  </si>
-  <si>
-    <t>黑龙江科技学院</t>
-  </si>
-  <si>
-    <t>南京审计学院</t>
-  </si>
-  <si>
-    <t>泰山医学院</t>
-  </si>
-  <si>
-    <t>西安邮电大学</t>
-  </si>
-  <si>
-    <t>西藏藏医学院</t>
-  </si>
-  <si>
-    <t>新疆财经大学</t>
-  </si>
-  <si>
-    <t>安庆师范学院</t>
-  </si>
-  <si>
-    <t>蚌埠医学院</t>
-  </si>
-  <si>
-    <t>北京农学院</t>
-  </si>
-  <si>
-    <t>大连海洋大学</t>
-  </si>
-  <si>
-    <t>阜阳师范学院</t>
-  </si>
-  <si>
-    <t>河北工程大学</t>
-  </si>
-  <si>
-    <t>湖北民族学院</t>
-  </si>
-  <si>
-    <t>兰州商学院</t>
-  </si>
-  <si>
-    <t>辽宁工业大学</t>
-  </si>
-  <si>
-    <t>临沂大学</t>
-  </si>
-  <si>
-    <t>陕西中医学院</t>
-  </si>
-  <si>
-    <t>商丘师范学院</t>
-  </si>
-  <si>
-    <t>上海应用技术学院</t>
-  </si>
-  <si>
-    <t>西安外国语大学</t>
-  </si>
-  <si>
-    <t>云南中医学院</t>
-  </si>
-  <si>
-    <t>郑州航空工业管理学院</t>
-  </si>
-  <si>
-    <t>重庆文理学院</t>
-  </si>
-  <si>
-    <t>北京服装学院</t>
-  </si>
-  <si>
-    <t>滨州医学院</t>
-  </si>
-  <si>
-    <t>成都信息工程学院</t>
-  </si>
-  <si>
-    <t>海南医学院</t>
-  </si>
-  <si>
-    <t>河南科技学院</t>
-  </si>
-  <si>
-    <t>湖南理工学院</t>
-  </si>
-  <si>
-    <t>湖南文理学院</t>
-  </si>
-  <si>
-    <t>吉林建筑工程学院</t>
-  </si>
-  <si>
-    <t>江汉大学</t>
-  </si>
-  <si>
-    <t>昆明学院</t>
-  </si>
-  <si>
-    <t>皖南医学院</t>
-  </si>
-  <si>
-    <t>长春师范学院</t>
-  </si>
-  <si>
-    <t>湖北经济学院</t>
-  </si>
-  <si>
-    <t>江苏技术师范学院</t>
-  </si>
-  <si>
-    <t>江西科技师范大学</t>
-  </si>
-  <si>
-    <t>井冈山大学</t>
-  </si>
-  <si>
-    <t>丽水学院</t>
-  </si>
-  <si>
-    <t>宁波工程学院</t>
-  </si>
-  <si>
-    <t>石家庄经济学院</t>
-  </si>
-  <si>
-    <t>天津外国语大学</t>
-  </si>
-  <si>
-    <t>天津职业技术师范大学</t>
-  </si>
-  <si>
-    <t>漳州师范学院</t>
-  </si>
-  <si>
-    <t>北京印刷学院</t>
-  </si>
-  <si>
-    <t>常州工学院</t>
-  </si>
-  <si>
-    <t>川北医学院</t>
-  </si>
-  <si>
-    <t>甘肃政法学院</t>
-  </si>
-  <si>
-    <t>广西财经学院</t>
-  </si>
-  <si>
-    <t>衡阳师范学院</t>
-  </si>
-  <si>
-    <t>淮阴师范学院</t>
-  </si>
-  <si>
-    <t>嘉兴学院</t>
-  </si>
-  <si>
-    <t>嘉应学院</t>
-  </si>
-  <si>
-    <t>乐山师范学院</t>
-  </si>
-  <si>
-    <t>内蒙古财经大学</t>
-  </si>
-  <si>
-    <t>西安财经学院</t>
-  </si>
-  <si>
-    <t>仲恺农业工程学院</t>
-  </si>
-  <si>
-    <t>重庆科技学院</t>
-  </si>
-  <si>
-    <t>重庆三峡学院</t>
-  </si>
-  <si>
-    <t>安阳师范学院</t>
-  </si>
-  <si>
-    <t>常熟理工学院</t>
-  </si>
-  <si>
-    <t>合肥师范学院</t>
-  </si>
-  <si>
-    <t>湖北师范学院</t>
-  </si>
-  <si>
-    <t>九江学院</t>
-  </si>
-  <si>
-    <t>南京工程学院</t>
-  </si>
-  <si>
-    <t>山西中医学院</t>
-  </si>
-  <si>
-    <t>上海金融学院</t>
-  </si>
-  <si>
-    <t>邵阳学院</t>
-  </si>
-  <si>
-    <t>皖西学院</t>
-  </si>
-  <si>
-    <t>五邑大学</t>
-  </si>
-  <si>
-    <t>盐城师范学院</t>
-  </si>
-  <si>
-    <t>伊犁师范学院</t>
-  </si>
-  <si>
-    <t>浙江科技学院</t>
-  </si>
-  <si>
-    <t>东莞理工学院</t>
-  </si>
-  <si>
-    <t>福建工程学院</t>
-  </si>
-  <si>
-    <t>赣南医学院</t>
-  </si>
-  <si>
-    <t>广东金融学院</t>
-  </si>
-  <si>
-    <t>湖南科技学院</t>
-  </si>
-  <si>
-    <t>金陵科技学院</t>
-  </si>
-  <si>
-    <t>南阳师范学院</t>
-  </si>
-  <si>
-    <t>陕西理工学院</t>
-  </si>
-  <si>
-    <t>上海第二工业大学</t>
-  </si>
-  <si>
-    <t>四川理工学院</t>
-  </si>
-  <si>
-    <t>天津农学院</t>
-  </si>
-  <si>
-    <t>天水师范学院</t>
-  </si>
-  <si>
-    <t>厦门理工学院</t>
-  </si>
-  <si>
-    <t>湘南学院</t>
-  </si>
-  <si>
-    <t>浙江万里学院</t>
-  </si>
-  <si>
-    <t>宝鸡文理学院</t>
-  </si>
-  <si>
-    <t>北京电子科技学院</t>
-  </si>
-  <si>
-    <t>北京石油化工学院</t>
-  </si>
-  <si>
-    <t>长江师范学院</t>
-  </si>
-  <si>
-    <t>长沙学院</t>
-  </si>
-  <si>
-    <t>广东技术师范学院</t>
-  </si>
-  <si>
-    <t>贵阳学院</t>
-  </si>
-  <si>
-    <t>河西学院</t>
-  </si>
-  <si>
-    <t>红河学院</t>
-  </si>
-  <si>
-    <t>湖南城市学院</t>
-  </si>
-  <si>
-    <t>湖南工程学院</t>
-  </si>
-  <si>
-    <t>湖南人文科技学院</t>
-  </si>
-  <si>
-    <t>怀化学院</t>
-  </si>
-  <si>
-    <t>惠州学院</t>
-  </si>
-  <si>
-    <t>济宁医学院</t>
-  </si>
-  <si>
-    <t>喀什师范学院</t>
-  </si>
-  <si>
-    <t>兰州城市学院</t>
-  </si>
-  <si>
-    <t>绵阳师范学院</t>
-  </si>
-  <si>
-    <t>牡丹江师范学院</t>
-  </si>
-  <si>
-    <t>南昌工程学院</t>
-  </si>
-  <si>
-    <t>曲靖师范学院</t>
-  </si>
-  <si>
-    <t>山西大同大学</t>
-  </si>
-  <si>
-    <t>上海立信会计学院</t>
-  </si>
-  <si>
-    <t>韶关学院</t>
-  </si>
-  <si>
-    <t>沈阳医学院</t>
-  </si>
-  <si>
-    <t>台州学院</t>
-  </si>
-  <si>
-    <t>右江民族医学院</t>
-  </si>
-  <si>
-    <t>湛江师范学院</t>
-  </si>
-  <si>
-    <t>中国劳动关系学院</t>
-  </si>
-  <si>
-    <t>安康学院</t>
-  </si>
-  <si>
-    <t>北华航天工业学院</t>
-  </si>
-  <si>
-    <t>北京物资学院</t>
-  </si>
-  <si>
-    <t>长春工程学院</t>
-  </si>
-  <si>
-    <t>成都医学院</t>
-  </si>
-  <si>
-    <t>赤峰学院</t>
-  </si>
-  <si>
-    <t>德州学院</t>
-  </si>
-  <si>
-    <t>佛山科学技术学院</t>
-  </si>
-  <si>
-    <t>甘肃民族师范学院</t>
-  </si>
-  <si>
-    <t>贵州师范学院</t>
-  </si>
-  <si>
-    <t>合肥学院</t>
-  </si>
-  <si>
-    <t>湖北科技学院</t>
-  </si>
-  <si>
-    <t>湖北文理学院</t>
-  </si>
-  <si>
-    <t>淮海工学院</t>
-  </si>
-  <si>
-    <t>淮阴工学院</t>
-  </si>
-  <si>
-    <t>黄冈师范学院</t>
-  </si>
-  <si>
-    <t>吉林医药学院</t>
-  </si>
-  <si>
-    <t>闽江学院</t>
-  </si>
-  <si>
-    <t>南京晓庄学院</t>
-  </si>
-  <si>
-    <t>山东交通学院</t>
-  </si>
-  <si>
-    <t>上海电机学院</t>
-  </si>
-  <si>
-    <t>上海政法学院</t>
-  </si>
-  <si>
-    <t>石家庄学院</t>
-  </si>
-  <si>
-    <t>太原师范学院</t>
-  </si>
-  <si>
-    <t>铜陵学院</t>
-  </si>
-  <si>
-    <t>潍坊学院</t>
-  </si>
-  <si>
-    <t>渭南师范学院</t>
-  </si>
-  <si>
-    <t>西昌学院</t>
-  </si>
-  <si>
-    <t>盐城工学院</t>
-  </si>
-  <si>
-    <t>宜宾学院</t>
-  </si>
-  <si>
-    <t>玉林师范学院</t>
-  </si>
-  <si>
-    <t>运城学院</t>
-  </si>
-  <si>
-    <t>中国民用航空飞行学院</t>
-  </si>
-  <si>
-    <t>中国刑事警察学院</t>
-  </si>
-  <si>
-    <t>中华女子学院</t>
-  </si>
-  <si>
-    <t>安徽科技学院</t>
-  </si>
-  <si>
-    <t>安顺学院</t>
-  </si>
-  <si>
-    <t>百色学院</t>
-  </si>
-  <si>
-    <t>毕节学院</t>
-  </si>
-  <si>
-    <t>滨州学院</t>
-  </si>
-  <si>
-    <t>长春大学</t>
-  </si>
-  <si>
-    <t>长治医学院</t>
-  </si>
-  <si>
-    <t>成都学院</t>
-  </si>
-  <si>
-    <t>承德医学院</t>
-  </si>
-  <si>
-    <t>大庆师范学院</t>
-  </si>
-  <si>
-    <t>韩山师范学院</t>
-  </si>
-  <si>
-    <t>河北北方学院</t>
-  </si>
-  <si>
-    <t>河北科技师范学院</t>
-  </si>
-  <si>
-    <t>河池学院</t>
-  </si>
-  <si>
-    <t>湖北理工学院</t>
-  </si>
-  <si>
-    <t>湖北汽车工业学院</t>
-  </si>
-  <si>
-    <t>湖南第一师范学院</t>
-  </si>
-  <si>
-    <t>淮南师范学院</t>
-  </si>
-  <si>
-    <t>吉林农业科技学院</t>
-  </si>
-  <si>
-    <t>集宁师范学院</t>
-  </si>
-  <si>
-    <t>晋中学院</t>
-  </si>
-  <si>
-    <t>凯里学院</t>
-  </si>
-  <si>
-    <t>廊坊师范学院</t>
-  </si>
-  <si>
-    <t>陇东学院</t>
-  </si>
-  <si>
-    <t>牡丹江医学院</t>
-  </si>
-  <si>
-    <t>齐齐哈尔医学院</t>
-  </si>
-  <si>
-    <t>黔南民族师范学院</t>
-  </si>
-  <si>
-    <t>泉州师范学院</t>
-  </si>
-  <si>
-    <t>上海海关学院</t>
-  </si>
-  <si>
-    <t>上饶师范学院</t>
-  </si>
-  <si>
-    <t>沈阳工程学院</t>
-  </si>
-  <si>
-    <t>四川文理学院</t>
-  </si>
-  <si>
-    <t>宿州学院</t>
-  </si>
-  <si>
-    <t>通化师范学院</t>
-  </si>
-  <si>
-    <t>西安文理学院</t>
-  </si>
-  <si>
-    <t>西安医学院</t>
-  </si>
-  <si>
-    <t>徐州工程学院</t>
-  </si>
-  <si>
-    <t>许昌学院</t>
-  </si>
-  <si>
-    <t>宜春学院</t>
-  </si>
-  <si>
-    <t>玉溪师范学院</t>
-  </si>
-  <si>
-    <t>云南警官学院</t>
-  </si>
-  <si>
-    <t>肇庆学院</t>
-  </si>
-  <si>
-    <t>中国人民武装警察部队学院</t>
-  </si>
-  <si>
-    <t>遵义师范学院</t>
-  </si>
-  <si>
-    <t>安阳工学院</t>
-  </si>
-  <si>
-    <t>鞍山师范学院</t>
-  </si>
-  <si>
-    <t>白城师范学院</t>
-  </si>
-  <si>
-    <t>保山学院</t>
-  </si>
-  <si>
-    <t>北京警察学院</t>
-  </si>
-  <si>
-    <t>昌吉学院</t>
-  </si>
-  <si>
-    <t>长治学院</t>
-  </si>
-  <si>
-    <t>巢湖学院</t>
-  </si>
-  <si>
-    <t>成都工业学院</t>
-  </si>
-  <si>
-    <t>池州学院</t>
-  </si>
-  <si>
-    <t>滁州学院</t>
-  </si>
-  <si>
-    <t>楚雄师范学院</t>
-  </si>
-  <si>
-    <t>防灾科技学院</t>
-  </si>
-  <si>
-    <t>广东石油化工学院</t>
-  </si>
-  <si>
-    <t>广西民族师范学院</t>
-  </si>
-  <si>
-    <t>哈尔滨学院</t>
-  </si>
-  <si>
-    <t>河北金融学院</t>
-  </si>
-  <si>
-    <t>河南工程学院</t>
-  </si>
-  <si>
-    <t>菏泽学院</t>
-  </si>
-  <si>
-    <t>贺州学院</t>
-  </si>
-  <si>
-    <t>黑河学院</t>
-  </si>
-  <si>
-    <t>呼和浩特民族学院</t>
-  </si>
-  <si>
-    <t>呼伦贝尔学院</t>
-  </si>
-  <si>
-    <t>湖北工程学院</t>
-  </si>
-  <si>
-    <t>湖北警官学院</t>
-  </si>
-  <si>
-    <t>湖北医药学院</t>
-  </si>
-  <si>
-    <t>湖南财政经济学院</t>
-  </si>
-  <si>
-    <t>湖南工学院</t>
-  </si>
-  <si>
-    <t>华北科技学院</t>
-  </si>
-  <si>
-    <t>黄淮学院</t>
-  </si>
-  <si>
-    <t>黄山学院</t>
-  </si>
-  <si>
-    <t>吉林工商学院</t>
-  </si>
-  <si>
-    <t>济宁学院</t>
-  </si>
-  <si>
-    <t>江苏警官学院</t>
-  </si>
-  <si>
-    <t>六盘水师范学院</t>
-  </si>
-  <si>
-    <t>洛阳理工学院</t>
-  </si>
-  <si>
-    <t>内江师范学院</t>
-  </si>
-  <si>
-    <t>南阳理工学院</t>
-  </si>
-  <si>
-    <t>攀枝花学院</t>
-  </si>
-  <si>
-    <t>莆田学院</t>
-  </si>
-  <si>
-    <t>齐鲁师范学院</t>
-  </si>
-  <si>
-    <t>钦州学院</t>
-  </si>
-  <si>
-    <t>琼州学院</t>
-  </si>
-  <si>
-    <t>衢州学院</t>
-  </si>
-  <si>
-    <t>三明学院</t>
-  </si>
-  <si>
-    <t>山东警察学院</t>
-  </si>
-  <si>
-    <t>上海商学院</t>
-  </si>
-  <si>
-    <t>四川警察学院</t>
-  </si>
-  <si>
-    <t>四川民族学院</t>
-  </si>
-  <si>
-    <t>泰山学院</t>
-  </si>
-  <si>
-    <t>铜仁学院</t>
-  </si>
-  <si>
-    <t>文山学院</t>
-  </si>
-  <si>
-    <t>梧州学院</t>
-  </si>
-  <si>
-    <t>武夷学院</t>
-  </si>
-  <si>
-    <t>咸阳师范学院</t>
-  </si>
-  <si>
-    <t>忻州师范学院</t>
-  </si>
-  <si>
-    <t>兴义民族师范学院</t>
-  </si>
-  <si>
-    <t>邢台学院</t>
-  </si>
-  <si>
-    <t>枣庄学院</t>
-  </si>
-  <si>
-    <t>浙江警察学院</t>
-  </si>
-  <si>
-    <t>浙江外国语学院</t>
-  </si>
-  <si>
-    <t>郑州师范学院</t>
-  </si>
-  <si>
-    <t>中央司法警官学院</t>
-  </si>
-  <si>
-    <t>周口师范学院</t>
-  </si>
-  <si>
-    <t>蚌埠学院</t>
-  </si>
-  <si>
-    <t>保定学院</t>
-  </si>
-  <si>
-    <t>沧州师范学院</t>
-  </si>
-  <si>
-    <t>成都师范学院</t>
-  </si>
-  <si>
-    <t>福建江夏学院</t>
-  </si>
-  <si>
-    <t>福建警察学院</t>
-  </si>
-  <si>
-    <t>公安海警学院</t>
-  </si>
-  <si>
-    <t>广东第二师范学院</t>
-  </si>
-  <si>
-    <t>广东警官学院</t>
-  </si>
-  <si>
-    <t>桂林航天工业学院</t>
-  </si>
-  <si>
-    <t>哈尔滨金融学院</t>
-  </si>
-  <si>
-    <t>邯郸学院</t>
-  </si>
-  <si>
-    <t>河北建筑工程学院</t>
-  </si>
-  <si>
-    <t>河北民族师范学院</t>
-  </si>
-  <si>
-    <t>河南城建学院</t>
-  </si>
-  <si>
-    <t>河南警察学院</t>
-  </si>
-  <si>
-    <t>河套学院</t>
-  </si>
-  <si>
-    <t>黑龙江工程学院</t>
-  </si>
-  <si>
-    <t>衡水学院</t>
-  </si>
-  <si>
-    <t>湖北第二师范学院</t>
-  </si>
-  <si>
-    <t>湖南警察学院</t>
-  </si>
-  <si>
-    <t>湖南女子学院</t>
-  </si>
-  <si>
-    <t>吉林工程技术师范学院</t>
-  </si>
-  <si>
-    <t>吉林警察学院</t>
-  </si>
-  <si>
-    <t>江西警察学院</t>
-  </si>
-  <si>
-    <t>荆楚理工学院</t>
-  </si>
-  <si>
-    <t>兰州工业学院</t>
-  </si>
-  <si>
-    <t>辽东学院</t>
-  </si>
-  <si>
-    <t>辽宁科技学院</t>
-  </si>
-  <si>
-    <t>龙岩学院</t>
-  </si>
-  <si>
-    <t>吕梁学院</t>
-  </si>
-  <si>
-    <t>南京森林警察学院</t>
-  </si>
-  <si>
-    <t>宁德师范学院</t>
-  </si>
-  <si>
-    <t>宁夏师范学院</t>
-  </si>
-  <si>
-    <t>平顶山学院</t>
-  </si>
-  <si>
-    <t>普洱学院</t>
-  </si>
-  <si>
-    <t>山东女子学院</t>
-  </si>
-  <si>
-    <t>山东青年政治学院</t>
-  </si>
-  <si>
-    <t>山东政法学院</t>
-  </si>
-  <si>
-    <t>陕西学前师范学院</t>
-  </si>
-  <si>
-    <t>商洛学院</t>
-  </si>
-  <si>
-    <t>首钢工学院</t>
-  </si>
-  <si>
-    <t>绥化学院</t>
-  </si>
-  <si>
-    <t>太原工业学院</t>
-  </si>
-  <si>
-    <t>唐山师范学院</t>
-  </si>
-  <si>
-    <t>唐山学院</t>
-  </si>
-  <si>
-    <t>西安航空学院</t>
-  </si>
-  <si>
-    <t>新疆工程学院</t>
-  </si>
-  <si>
-    <t>新疆警察学院</t>
-  </si>
-  <si>
-    <t>新乡学院</t>
-  </si>
-  <si>
-    <t>新余学院</t>
-  </si>
-  <si>
-    <t>榆林学院</t>
-  </si>
-  <si>
-    <t>昭通学院</t>
-  </si>
-  <si>
-    <t>重庆第二师范学院</t>
-  </si>
-  <si>
-    <t>重庆警察学院</t>
-  </si>
-  <si>
-    <t>中国科学技术大学</t>
-  </si>
-  <si>
-    <t>温州医科大学</t>
-  </si>
-  <si>
-    <t>广州医科大学</t>
-  </si>
-  <si>
-    <t>华北水利水电大学</t>
-  </si>
-  <si>
-    <t>北京建筑大学</t>
-  </si>
-  <si>
-    <t>社会影响</t>
-  </si>
-  <si>
-    <t>国防科学技术大学</t>
-  </si>
-  <si>
-    <t>解放军信息工程大学</t>
-  </si>
-  <si>
-    <t>第三军医大学</t>
-  </si>
-  <si>
-    <t>第二军医大学</t>
-  </si>
-  <si>
-    <t>第四军医大学</t>
-  </si>
-  <si>
-    <t>解放军理工大学</t>
-  </si>
-  <si>
-    <t>上海对外经贸大学</t>
-  </si>
-  <si>
-    <t>浙江财经大学</t>
-  </si>
-  <si>
-    <t>广东财经大学</t>
-  </si>
-  <si>
-    <t>成都信息工程大学</t>
-  </si>
-  <si>
-    <t>华北理工大学</t>
-  </si>
-  <si>
-    <t>西藏民族大学</t>
-  </si>
-  <si>
-    <t>贵州医科大学</t>
-  </si>
-  <si>
-    <t>江西中医药大学</t>
-  </si>
-  <si>
-    <t>齐鲁工业大学</t>
-  </si>
-  <si>
-    <t>黑龙江科技大学</t>
-  </si>
-  <si>
-    <t>安徽中医药大学</t>
-  </si>
-  <si>
-    <t>大连民族大学</t>
-  </si>
-  <si>
-    <t>安徽建筑大学</t>
-  </si>
-  <si>
-    <t>武汉轻工大学</t>
   </si>
   <si>
     <t>兰州财经大学</t>
@@ -2890,7 +2890,7 @@
   <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A286" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A286" activeCellId="0" sqref="A286"/>
+      <selection pane="topLeft" activeCell="A286" activeCellId="1" sqref="A1 A286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -23742,7 +23742,7 @@
   <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A188" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A236" activeCellId="0" sqref="A236"/>
+      <selection pane="topLeft" activeCell="A236" activeCellId="1" sqref="A1 A236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -30692,8 +30692,8 @@
   </sheetPr>
   <dimension ref="A1:G709"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A319" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A332" activeCellId="1" sqref="A1 A332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -34797,7 +34797,7 @@
     </row>
     <row r="179" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>289</v>
+        <v>387</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>15</v>
@@ -35372,7 +35372,7 @@
     </row>
     <row r="204" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>17</v>
@@ -36637,7 +36637,7 @@
     </row>
     <row r="259" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>17</v>
@@ -36959,7 +36959,7 @@
     </row>
     <row r="273" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>92</v>
@@ -37189,7 +37189,7 @@
     </row>
     <row r="283" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B283" s="5" t="s">
         <v>38</v>
@@ -37511,7 +37511,7 @@
     </row>
     <row r="297" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B297" s="5" t="s">
         <v>53</v>
@@ -37534,7 +37534,7 @@
     </row>
     <row r="298" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B298" s="5" t="s">
         <v>44</v>
@@ -37580,7 +37580,7 @@
     </row>
     <row r="300" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>124</v>
@@ -37649,7 +37649,7 @@
     </row>
     <row r="303" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B303" s="5" t="s">
         <v>15</v>
@@ -37672,7 +37672,7 @@
     </row>
     <row r="304" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B304" s="5" t="s">
         <v>36</v>
@@ -37718,7 +37718,7 @@
     </row>
     <row r="306" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B306" s="5" t="s">
         <v>20</v>
@@ -37741,7 +37741,7 @@
     </row>
     <row r="307" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B307" s="5" t="s">
         <v>40</v>
@@ -37925,7 +37925,7 @@
     </row>
     <row r="315" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>83</v>
@@ -37948,7 +37948,7 @@
     </row>
     <row r="316" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B316" s="5" t="s">
         <v>38</v>
@@ -37994,7 +37994,7 @@
     </row>
     <row r="318" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B318" s="5" t="s">
         <v>53</v>
@@ -38040,7 +38040,7 @@
     </row>
     <row r="320" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B320" s="5" t="s">
         <v>40</v>
@@ -38063,7 +38063,7 @@
     </row>
     <row r="321" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B321" s="5" t="s">
         <v>34</v>
@@ -38109,7 +38109,7 @@
     </row>
     <row r="323" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B323" s="5" t="s">
         <v>211</v>
@@ -38132,7 +38132,7 @@
     </row>
     <row r="324" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B324" s="5" t="s">
         <v>34</v>
@@ -38224,7 +38224,7 @@
     </row>
     <row r="328" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B328" s="5" t="s">
         <v>36</v>
@@ -38247,7 +38247,7 @@
     </row>
     <row r="329" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B329" s="5" t="s">
         <v>129</v>
@@ -38270,7 +38270,7 @@
     </row>
     <row r="330" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B330" s="5" t="s">
         <v>13</v>
@@ -38293,7 +38293,7 @@
     </row>
     <row r="331" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B331" s="5" t="s">
         <v>92</v>
@@ -38316,7 +38316,7 @@
     </row>
     <row r="332" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B332" s="5" t="s">
         <v>28</v>
@@ -38339,7 +38339,7 @@
     </row>
     <row r="333" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B333" s="5" t="s">
         <v>83</v>
@@ -38385,7 +38385,7 @@
     </row>
     <row r="335" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B335" s="5" t="s">
         <v>140</v>
@@ -38408,7 +38408,7 @@
     </row>
     <row r="336" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B336" s="5" t="s">
         <v>8</v>
@@ -38431,7 +38431,7 @@
     </row>
     <row r="337" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B337" s="5" t="s">
         <v>131</v>
@@ -38454,7 +38454,7 @@
     </row>
     <row r="338" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B338" s="5" t="s">
         <v>38</v>
@@ -38477,7 +38477,7 @@
     </row>
     <row r="339" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B339" s="5" t="s">
         <v>83</v>
@@ -38500,7 +38500,7 @@
     </row>
     <row r="340" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B340" s="5" t="s">
         <v>25</v>
@@ -38523,7 +38523,7 @@
     </row>
     <row r="341" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B341" s="5" t="s">
         <v>118</v>
@@ -38546,7 +38546,7 @@
     </row>
     <row r="342" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B342" s="5" t="s">
         <v>30</v>
@@ -38569,7 +38569,7 @@
     </row>
     <row r="343" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B343" s="5" t="s">
         <v>23</v>
@@ -38592,7 +38592,7 @@
     </row>
     <row r="344" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B344" s="5" t="s">
         <v>28</v>
@@ -38615,7 +38615,7 @@
     </row>
     <row r="345" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B345" s="5" t="s">
         <v>15</v>
@@ -38638,7 +38638,7 @@
     </row>
     <row r="346" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B346" s="5" t="s">
         <v>17</v>
@@ -38661,7 +38661,7 @@
     </row>
     <row r="347" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B347" s="5" t="s">
         <v>42</v>
@@ -38684,7 +38684,7 @@
     </row>
     <row r="348" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B348" s="5" t="s">
         <v>8</v>
@@ -38707,7 +38707,7 @@
     </row>
     <row r="349" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B349" s="5" t="s">
         <v>23</v>
@@ -38730,7 +38730,7 @@
     </row>
     <row r="350" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B350" s="5" t="s">
         <v>53</v>
@@ -38753,7 +38753,7 @@
     </row>
     <row r="351" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B351" s="5" t="s">
         <v>28</v>
@@ -38776,7 +38776,7 @@
     </row>
     <row r="352" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B352" s="5" t="s">
         <v>118</v>
@@ -38799,7 +38799,7 @@
     </row>
     <row r="353" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B353" s="5" t="s">
         <v>59</v>
@@ -38822,7 +38822,7 @@
     </row>
     <row r="354" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B354" s="5" t="s">
         <v>218</v>
@@ -38845,7 +38845,7 @@
     </row>
     <row r="355" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B355" s="5" t="s">
         <v>15</v>
@@ -38868,7 +38868,7 @@
     </row>
     <row r="356" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B356" s="5" t="s">
         <v>61</v>
@@ -38891,7 +38891,7 @@
     </row>
     <row r="357" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B357" s="5" t="s">
         <v>140</v>
@@ -38914,7 +38914,7 @@
     </row>
     <row r="358" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B358" s="5" t="s">
         <v>140</v>
@@ -38937,7 +38937,7 @@
     </row>
     <row r="359" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B359" s="5" t="s">
         <v>53</v>
@@ -38960,7 +38960,7 @@
     </row>
     <row r="360" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B360" s="5" t="s">
         <v>8</v>
@@ -38983,7 +38983,7 @@
     </row>
     <row r="361" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B361" s="5" t="s">
         <v>36</v>
@@ -39006,7 +39006,7 @@
     </row>
     <row r="362" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B362" s="5" t="s">
         <v>53</v>
@@ -39029,7 +39029,7 @@
     </row>
     <row r="363" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B363" s="5" t="s">
         <v>30</v>
@@ -39052,7 +39052,7 @@
     </row>
     <row r="364" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B364" s="5" t="s">
         <v>83</v>
@@ -39075,7 +39075,7 @@
     </row>
     <row r="365" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B365" s="5" t="s">
         <v>163</v>
@@ -39121,7 +39121,7 @@
     </row>
     <row r="367" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B367" s="5" t="s">
         <v>40</v>
@@ -39144,7 +39144,7 @@
     </row>
     <row r="368" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B368" s="5" t="s">
         <v>36</v>
@@ -39167,7 +39167,7 @@
     </row>
     <row r="369" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B369" s="5" t="s">
         <v>53</v>
@@ -39190,7 +39190,7 @@
     </row>
     <row r="370" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B370" s="5" t="s">
         <v>17</v>
@@ -39213,7 +39213,7 @@
     </row>
     <row r="371" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B371" s="5" t="s">
         <v>8</v>
@@ -39236,7 +39236,7 @@
     </row>
     <row r="372" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B372" s="5" t="s">
         <v>8</v>
@@ -39259,7 +39259,7 @@
     </row>
     <row r="373" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B373" s="5" t="s">
         <v>98</v>
@@ -39282,7 +39282,7 @@
     </row>
     <row r="374" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B374" s="5" t="s">
         <v>131</v>
@@ -39305,7 +39305,7 @@
     </row>
     <row r="375" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B375" s="5" t="s">
         <v>53</v>
@@ -39328,7 +39328,7 @@
     </row>
     <row r="376" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B376" s="5" t="s">
         <v>34</v>
@@ -39351,7 +39351,7 @@
     </row>
     <row r="377" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B377" s="5" t="s">
         <v>83</v>
@@ -39374,7 +39374,7 @@
     </row>
     <row r="378" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B378" s="5" t="s">
         <v>36</v>
@@ -39397,7 +39397,7 @@
     </row>
     <row r="379" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B379" s="5" t="s">
         <v>8</v>
@@ -39420,7 +39420,7 @@
     </row>
     <row r="380" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B380" s="5" t="s">
         <v>15</v>
@@ -39443,7 +39443,7 @@
     </row>
     <row r="381" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B381" s="5" t="s">
         <v>23</v>
@@ -39466,7 +39466,7 @@
     </row>
     <row r="382" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B382" s="5" t="s">
         <v>23</v>
@@ -39489,7 +39489,7 @@
     </row>
     <row r="383" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B383" s="5" t="s">
         <v>83</v>
@@ -39512,7 +39512,7 @@
     </row>
     <row r="384" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B384" s="5" t="s">
         <v>34</v>
@@ -39535,7 +39535,7 @@
     </row>
     <row r="385" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B385" s="5" t="s">
         <v>13</v>
@@ -39558,7 +39558,7 @@
     </row>
     <row r="386" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B386" s="5" t="s">
         <v>13</v>
@@ -39581,7 +39581,7 @@
     </row>
     <row r="387" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B387" s="5" t="s">
         <v>53</v>
@@ -39604,7 +39604,7 @@
     </row>
     <row r="388" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B388" s="5" t="s">
         <v>83</v>
@@ -39627,7 +39627,7 @@
     </row>
     <row r="389" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B389" s="5" t="s">
         <v>92</v>
@@ -39650,7 +39650,7 @@
     </row>
     <row r="390" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B390" s="5" t="s">
         <v>53</v>
@@ -39673,7 +39673,7 @@
     </row>
     <row r="391" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B391" s="5" t="s">
         <v>28</v>
@@ -39696,7 +39696,7 @@
     </row>
     <row r="392" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B392" s="5" t="s">
         <v>140</v>
@@ -39719,7 +39719,7 @@
     </row>
     <row r="393" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B393" s="5" t="s">
         <v>131</v>
@@ -39742,7 +39742,7 @@
     </row>
     <row r="394" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B394" s="5" t="s">
         <v>38</v>
@@ -39765,7 +39765,7 @@
     </row>
     <row r="395" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B395" s="5" t="s">
         <v>17</v>
@@ -39788,7 +39788,7 @@
     </row>
     <row r="396" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B396" s="5" t="s">
         <v>34</v>
@@ -39811,7 +39811,7 @@
     </row>
     <row r="397" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B397" s="5" t="s">
         <v>42</v>
@@ -39834,7 +39834,7 @@
     </row>
     <row r="398" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B398" s="5" t="s">
         <v>218</v>
@@ -39857,7 +39857,7 @@
     </row>
     <row r="399" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B399" s="5" t="s">
         <v>124</v>
@@ -39880,7 +39880,7 @@
     </row>
     <row r="400" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B400" s="5" t="s">
         <v>36</v>
@@ -39903,7 +39903,7 @@
     </row>
     <row r="401" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B401" s="5" t="s">
         <v>36</v>
@@ -39926,7 +39926,7 @@
     </row>
     <row r="402" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B402" s="5" t="s">
         <v>8</v>
@@ -39949,7 +39949,7 @@
     </row>
     <row r="403" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B403" s="5" t="s">
         <v>53</v>
@@ -39972,7 +39972,7 @@
     </row>
     <row r="404" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B404" s="5" t="s">
         <v>36</v>
@@ -39995,7 +39995,7 @@
     </row>
     <row r="405" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B405" s="5" t="s">
         <v>129</v>
@@ -40018,7 +40018,7 @@
     </row>
     <row r="406" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B406" s="5" t="s">
         <v>20</v>
@@ -40041,7 +40041,7 @@
     </row>
     <row r="407" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B407" s="5" t="s">
         <v>61</v>
@@ -40064,7 +40064,7 @@
     </row>
     <row r="408" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B408" s="5" t="s">
         <v>53</v>
@@ -40087,7 +40087,7 @@
     </row>
     <row r="409" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B409" s="5" t="s">
         <v>34</v>
@@ -40110,7 +40110,7 @@
     </row>
     <row r="410" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B410" s="5" t="s">
         <v>42</v>
@@ -40133,7 +40133,7 @@
     </row>
     <row r="411" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B411" s="5" t="s">
         <v>83</v>
@@ -40156,7 +40156,7 @@
     </row>
     <row r="412" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B412" s="5" t="s">
         <v>13</v>
@@ -40179,7 +40179,7 @@
     </row>
     <row r="413" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B413" s="5" t="s">
         <v>42</v>
@@ -40202,7 +40202,7 @@
     </row>
     <row r="414" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B414" s="5" t="s">
         <v>92</v>
@@ -40225,7 +40225,7 @@
     </row>
     <row r="415" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B415" s="5" t="s">
         <v>83</v>
@@ -40248,7 +40248,7 @@
     </row>
     <row r="416" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B416" s="5" t="s">
         <v>59</v>
@@ -40271,7 +40271,7 @@
     </row>
     <row r="417" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B417" s="5" t="s">
         <v>8</v>
@@ -40294,7 +40294,7 @@
     </row>
     <row r="418" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B418" s="5" t="s">
         <v>34</v>
@@ -40317,7 +40317,7 @@
     </row>
     <row r="419" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B419" s="5" t="s">
         <v>25</v>
@@ -40340,7 +40340,7 @@
     </row>
     <row r="420" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B420" s="5" t="s">
         <v>136</v>
@@ -40363,7 +40363,7 @@
     </row>
     <row r="421" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B421" s="5" t="s">
         <v>83</v>
@@ -40386,7 +40386,7 @@
     </row>
     <row r="422" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B422" s="5" t="s">
         <v>40</v>
@@ -40409,7 +40409,7 @@
     </row>
     <row r="423" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B423" s="5" t="s">
         <v>40</v>
@@ -40432,7 +40432,7 @@
     </row>
     <row r="424" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B424" s="5" t="s">
         <v>23</v>
@@ -40455,7 +40455,7 @@
     </row>
     <row r="425" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B425" s="5" t="s">
         <v>20</v>
@@ -40478,7 +40478,7 @@
     </row>
     <row r="426" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B426" s="5" t="s">
         <v>92</v>
@@ -40501,7 +40501,7 @@
     </row>
     <row r="427" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B427" s="5" t="s">
         <v>36</v>
@@ -40524,7 +40524,7 @@
     </row>
     <row r="428" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B428" s="5" t="s">
         <v>23</v>
@@ -40547,7 +40547,7 @@
     </row>
     <row r="429" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B429" s="5" t="s">
         <v>20</v>
@@ -40570,7 +40570,7 @@
     </row>
     <row r="430" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B430" s="5" t="s">
         <v>17</v>
@@ -40593,7 +40593,7 @@
     </row>
     <row r="431" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B431" s="5" t="s">
         <v>98</v>
@@ -40616,7 +40616,7 @@
     </row>
     <row r="432" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B432" s="5" t="s">
         <v>98</v>
@@ -40639,7 +40639,7 @@
     </row>
     <row r="433" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B433" s="5" t="s">
         <v>15</v>
@@ -40662,7 +40662,7 @@
     </row>
     <row r="434" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B434" s="5" t="s">
         <v>15</v>
@@ -40685,7 +40685,7 @@
     </row>
     <row r="435" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B435" s="5" t="s">
         <v>129</v>
@@ -40708,7 +40708,7 @@
     </row>
     <row r="436" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B436" s="5" t="s">
         <v>30</v>
@@ -40731,7 +40731,7 @@
     </row>
     <row r="437" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B437" s="5" t="s">
         <v>30</v>
@@ -40754,7 +40754,7 @@
     </row>
     <row r="438" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B438" s="5" t="s">
         <v>44</v>
@@ -40777,7 +40777,7 @@
     </row>
     <row r="439" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B439" s="5" t="s">
         <v>8</v>
@@ -40800,7 +40800,7 @@
     </row>
     <row r="440" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B440" s="5" t="s">
         <v>17</v>
@@ -40823,7 +40823,7 @@
     </row>
     <row r="441" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B441" s="5" t="s">
         <v>25</v>
@@ -40846,7 +40846,7 @@
     </row>
     <row r="442" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B442" s="5" t="s">
         <v>61</v>
@@ -40869,7 +40869,7 @@
     </row>
     <row r="443" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B443" s="5" t="s">
         <v>131</v>
@@ -40892,7 +40892,7 @@
     </row>
     <row r="444" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B444" s="5" t="s">
         <v>40</v>
@@ -40915,7 +40915,7 @@
     </row>
     <row r="445" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B445" s="5" t="s">
         <v>17</v>
@@ -40938,7 +40938,7 @@
     </row>
     <row r="446" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B446" s="5" t="s">
         <v>15</v>
@@ -40961,7 +40961,7 @@
     </row>
     <row r="447" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B447" s="5" t="s">
         <v>28</v>
@@ -40984,7 +40984,7 @@
     </row>
     <row r="448" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B448" s="5" t="s">
         <v>25</v>
@@ -41007,7 +41007,7 @@
     </row>
     <row r="449" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B449" s="5" t="s">
         <v>118</v>
@@ -41030,7 +41030,7 @@
     </row>
     <row r="450" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B450" s="5" t="s">
         <v>42</v>
@@ -41053,7 +41053,7 @@
     </row>
     <row r="451" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B451" s="5" t="s">
         <v>28</v>
@@ -41076,7 +41076,7 @@
     </row>
     <row r="452" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B452" s="5" t="s">
         <v>59</v>
@@ -41099,7 +41099,7 @@
     </row>
     <row r="453" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B453" s="5" t="s">
         <v>59</v>
@@ -41122,7 +41122,7 @@
     </row>
     <row r="454" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B454" s="5" t="s">
         <v>83</v>
@@ -41145,7 +41145,7 @@
     </row>
     <row r="455" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B455" s="5" t="s">
         <v>17</v>
@@ -41168,7 +41168,7 @@
     </row>
     <row r="456" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B456" s="5" t="s">
         <v>36</v>
@@ -41191,7 +41191,7 @@
     </row>
     <row r="457" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B457" s="5" t="s">
         <v>20</v>
@@ -41214,7 +41214,7 @@
     </row>
     <row r="458" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B458" s="5" t="s">
         <v>98</v>
@@ -41237,7 +41237,7 @@
     </row>
     <row r="459" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B459" s="5" t="s">
         <v>17</v>
@@ -41260,7 +41260,7 @@
     </row>
     <row r="460" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B460" s="5" t="s">
         <v>106</v>
@@ -41283,7 +41283,7 @@
     </row>
     <row r="461" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B461" s="5" t="s">
         <v>13</v>
@@ -41306,7 +41306,7 @@
     </row>
     <row r="462" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B462" s="5" t="s">
         <v>40</v>
@@ -41329,7 +41329,7 @@
     </row>
     <row r="463" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B463" s="5" t="s">
         <v>36</v>
@@ -41352,7 +41352,7 @@
     </row>
     <row r="464" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B464" s="5" t="s">
         <v>28</v>
@@ -41375,7 +41375,7 @@
     </row>
     <row r="465" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B465" s="5" t="s">
         <v>17</v>
@@ -41398,7 +41398,7 @@
     </row>
     <row r="466" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B466" s="5" t="s">
         <v>124</v>
@@ -41421,7 +41421,7 @@
     </row>
     <row r="467" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B467" s="5" t="s">
         <v>15</v>
@@ -41444,7 +41444,7 @@
     </row>
     <row r="468" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B468" s="5" t="s">
         <v>28</v>
@@ -41467,7 +41467,7 @@
     </row>
     <row r="469" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B469" s="5" t="s">
         <v>44</v>
@@ -41490,7 +41490,7 @@
     </row>
     <row r="470" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B470" s="5" t="s">
         <v>98</v>
@@ -41513,7 +41513,7 @@
     </row>
     <row r="471" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B471" s="5" t="s">
         <v>28</v>
@@ -41536,7 +41536,7 @@
     </row>
     <row r="472" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B472" s="5" t="s">
         <v>40</v>
@@ -41559,7 +41559,7 @@
     </row>
     <row r="473" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B473" s="5" t="s">
         <v>17</v>
@@ -41582,7 +41582,7 @@
     </row>
     <row r="474" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B474" s="5" t="s">
         <v>83</v>
@@ -41605,7 +41605,7 @@
     </row>
     <row r="475" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B475" s="5" t="s">
         <v>42</v>
@@ -41628,7 +41628,7 @@
     </row>
     <row r="476" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B476" s="5" t="s">
         <v>13</v>
@@ -41651,7 +41651,7 @@
     </row>
     <row r="477" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B477" s="5" t="s">
         <v>25</v>
@@ -41674,7 +41674,7 @@
     </row>
     <row r="478" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B478" s="5" t="s">
         <v>30</v>
@@ -41697,7 +41697,7 @@
     </row>
     <row r="479" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B479" s="5" t="s">
         <v>61</v>
@@ -41720,7 +41720,7 @@
     </row>
     <row r="480" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B480" s="5" t="s">
         <v>44</v>
@@ -41743,7 +41743,7 @@
     </row>
     <row r="481" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B481" s="5" t="s">
         <v>40</v>
@@ -41766,7 +41766,7 @@
     </row>
     <row r="482" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B482" s="5" t="s">
         <v>15</v>
@@ -41789,7 +41789,7 @@
     </row>
     <row r="483" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B483" s="5" t="s">
         <v>42</v>
@@ -41812,7 +41812,7 @@
     </row>
     <row r="484" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B484" s="5" t="s">
         <v>8</v>
@@ -41835,7 +41835,7 @@
     </row>
     <row r="485" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B485" s="5" t="s">
         <v>8</v>
@@ -41858,7 +41858,7 @@
     </row>
     <row r="486" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B486" s="5" t="s">
         <v>59</v>
@@ -41881,7 +41881,7 @@
     </row>
     <row r="487" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B487" s="5" t="s">
         <v>40</v>
@@ -41904,7 +41904,7 @@
     </row>
     <row r="488" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B488" s="5" t="s">
         <v>28</v>
@@ -41927,7 +41927,7 @@
     </row>
     <row r="489" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B489" s="5" t="s">
         <v>140</v>
@@ -41950,7 +41950,7 @@
     </row>
     <row r="490" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B490" s="5" t="s">
         <v>61</v>
@@ -41973,7 +41973,7 @@
     </row>
     <row r="491" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B491" s="5" t="s">
         <v>92</v>
@@ -41996,7 +41996,7 @@
     </row>
     <row r="492" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B492" s="5" t="s">
         <v>40</v>
@@ -42019,7 +42019,7 @@
     </row>
     <row r="493" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B493" s="5" t="s">
         <v>40</v>
@@ -42042,7 +42042,7 @@
     </row>
     <row r="494" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B494" s="5" t="s">
         <v>40</v>
@@ -42065,7 +42065,7 @@
     </row>
     <row r="495" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="5" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B495" s="5" t="s">
         <v>40</v>
@@ -42088,7 +42088,7 @@
     </row>
     <row r="496" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B496" s="5" t="s">
         <v>28</v>
@@ -42111,7 +42111,7 @@
     </row>
     <row r="497" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B497" s="5" t="s">
         <v>34</v>
@@ -42134,7 +42134,7 @@
     </row>
     <row r="498" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B498" s="5" t="s">
         <v>124</v>
@@ -42157,7 +42157,7 @@
     </row>
     <row r="499" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B499" s="5" t="s">
         <v>61</v>
@@ -42180,7 +42180,7 @@
     </row>
     <row r="500" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B500" s="5" t="s">
         <v>25</v>
@@ -42203,7 +42203,7 @@
     </row>
     <row r="501" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="5" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B501" s="5" t="s">
         <v>38</v>
@@ -42226,7 +42226,7 @@
     </row>
     <row r="502" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B502" s="5" t="s">
         <v>98</v>
@@ -42249,7 +42249,7 @@
     </row>
     <row r="503" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="5" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B503" s="5" t="s">
         <v>92</v>
@@ -42272,7 +42272,7 @@
     </row>
     <row r="504" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B504" s="5" t="s">
         <v>106</v>
@@ -42295,7 +42295,7 @@
     </row>
     <row r="505" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B505" s="5" t="s">
         <v>13</v>
@@ -42318,7 +42318,7 @@
     </row>
     <row r="506" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B506" s="5" t="s">
         <v>28</v>
@@ -42341,7 +42341,7 @@
     </row>
     <row r="507" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B507" s="5" t="s">
         <v>53</v>
@@ -42364,7 +42364,7 @@
     </row>
     <row r="508" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B508" s="5" t="s">
         <v>15</v>
@@ -42387,7 +42387,7 @@
     </row>
     <row r="509" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B509" s="5" t="s">
         <v>131</v>
@@ -42410,7 +42410,7 @@
     </row>
     <row r="510" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B510" s="5" t="s">
         <v>28</v>
@@ -42433,7 +42433,7 @@
     </row>
     <row r="511" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B511" s="5" t="s">
         <v>8</v>
@@ -42456,7 +42456,7 @@
     </row>
     <row r="512" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B512" s="5" t="s">
         <v>42</v>
@@ -42479,7 +42479,7 @@
     </row>
     <row r="513" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B513" s="5" t="s">
         <v>129</v>
@@ -42502,7 +42502,7 @@
     </row>
     <row r="514" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B514" s="5" t="s">
         <v>8</v>
@@ -42525,7 +42525,7 @@
     </row>
     <row r="515" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B515" s="5" t="s">
         <v>23</v>
@@ -42548,7 +42548,7 @@
     </row>
     <row r="516" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B516" s="5" t="s">
         <v>25</v>
@@ -42571,7 +42571,7 @@
     </row>
     <row r="517" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B517" s="5" t="s">
         <v>118</v>
@@ -42594,7 +42594,7 @@
     </row>
     <row r="518" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B518" s="5" t="s">
         <v>34</v>
@@ -42617,7 +42617,7 @@
     </row>
     <row r="519" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="5" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B519" s="5" t="s">
         <v>28</v>
@@ -42640,7 +42640,7 @@
     </row>
     <row r="520" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="5" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B520" s="5" t="s">
         <v>61</v>
@@ -42663,7 +42663,7 @@
     </row>
     <row r="521" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="5" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B521" s="5" t="s">
         <v>140</v>
@@ -42686,7 +42686,7 @@
     </row>
     <row r="522" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="5" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B522" s="5" t="s">
         <v>36</v>
@@ -42709,7 +42709,7 @@
     </row>
     <row r="523" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="5" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B523" s="5" t="s">
         <v>20</v>
@@ -42732,7 +42732,7 @@
     </row>
     <row r="524" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="5" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B524" s="5" t="s">
         <v>20</v>
@@ -42755,7 +42755,7 @@
     </row>
     <row r="525" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B525" s="5" t="s">
         <v>17</v>
@@ -42778,7 +42778,7 @@
     </row>
     <row r="526" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="5" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B526" s="5" t="s">
         <v>17</v>
@@ -42801,7 +42801,7 @@
     </row>
     <row r="527" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B527" s="5" t="s">
         <v>20</v>
@@ -42824,7 +42824,7 @@
     </row>
     <row r="528" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="5" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B528" s="5" t="s">
         <v>23</v>
@@ -42847,7 +42847,7 @@
     </row>
     <row r="529" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B529" s="5" t="s">
         <v>44</v>
@@ -42870,7 +42870,7 @@
     </row>
     <row r="530" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B530" s="5" t="s">
         <v>17</v>
@@ -42893,7 +42893,7 @@
     </row>
     <row r="531" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B531" s="5" t="s">
         <v>34</v>
@@ -42916,7 +42916,7 @@
     </row>
     <row r="532" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B532" s="5" t="s">
         <v>13</v>
@@ -42939,7 +42939,7 @@
     </row>
     <row r="533" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B533" s="5" t="s">
         <v>13</v>
@@ -42962,7 +42962,7 @@
     </row>
     <row r="534" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B534" s="5" t="s">
         <v>129</v>
@@ -42985,7 +42985,7 @@
     </row>
     <row r="535" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="5" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B535" s="5" t="s">
         <v>106</v>
@@ -43008,7 +43008,7 @@
     </row>
     <row r="536" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="5" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B536" s="5" t="s">
         <v>36</v>
@@ -43031,7 +43031,7 @@
     </row>
     <row r="537" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="5" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B537" s="5" t="s">
         <v>34</v>
@@ -43054,7 +43054,7 @@
     </row>
     <row r="538" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B538" s="5" t="s">
         <v>42</v>
@@ -43077,7 +43077,7 @@
     </row>
     <row r="539" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="5" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B539" s="5" t="s">
         <v>25</v>
@@ -43100,7 +43100,7 @@
     </row>
     <row r="540" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="5" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B540" s="5" t="s">
         <v>17</v>
@@ -43123,7 +43123,7 @@
     </row>
     <row r="541" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="5" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B541" s="5" t="s">
         <v>25</v>
@@ -43146,7 +43146,7 @@
     </row>
     <row r="542" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B542" s="5" t="s">
         <v>131</v>
@@ -43169,7 +43169,7 @@
     </row>
     <row r="543" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="5" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B543" s="5" t="s">
         <v>106</v>
@@ -43192,7 +43192,7 @@
     </row>
     <row r="544" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="5" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B544" s="5" t="s">
         <v>25</v>
@@ -43215,7 +43215,7 @@
     </row>
     <row r="545" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="5" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B545" s="5" t="s">
         <v>53</v>
@@ -43238,7 +43238,7 @@
     </row>
     <row r="546" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="5" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B546" s="5" t="s">
         <v>8</v>
@@ -43261,7 +43261,7 @@
     </row>
     <row r="547" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="5" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B547" s="5" t="s">
         <v>36</v>
@@ -43284,7 +43284,7 @@
     </row>
     <row r="548" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B548" s="5" t="s">
         <v>140</v>
@@ -43307,7 +43307,7 @@
     </row>
     <row r="549" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="5" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B549" s="5" t="s">
         <v>131</v>
@@ -43330,7 +43330,7 @@
     </row>
     <row r="550" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="5" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B550" s="5" t="s">
         <v>140</v>
@@ -43353,7 +43353,7 @@
     </row>
     <row r="551" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B551" s="5" t="s">
         <v>34</v>
@@ -43376,7 +43376,7 @@
     </row>
     <row r="552" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="5" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B552" s="5" t="s">
         <v>23</v>
@@ -43399,7 +43399,7 @@
     </row>
     <row r="553" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="5" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B553" s="5" t="s">
         <v>106</v>
@@ -43422,7 +43422,7 @@
     </row>
     <row r="554" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="5" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B554" s="5" t="s">
         <v>25</v>
@@ -43445,7 +43445,7 @@
     </row>
     <row r="555" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B555" s="5" t="s">
         <v>129</v>
@@ -43468,7 +43468,7 @@
     </row>
     <row r="556" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B556" s="5" t="s">
         <v>38</v>
@@ -43491,7 +43491,7 @@
     </row>
     <row r="557" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B557" s="5" t="s">
         <v>28</v>
@@ -43514,7 +43514,7 @@
     </row>
     <row r="558" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B558" s="5" t="s">
         <v>129</v>
@@ -43537,7 +43537,7 @@
     </row>
     <row r="559" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B559" s="5" t="s">
         <v>129</v>
@@ -43560,7 +43560,7 @@
     </row>
     <row r="560" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="5" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B560" s="5" t="s">
         <v>131</v>
@@ -43583,7 +43583,7 @@
     </row>
     <row r="561" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="5" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B561" s="5" t="s">
         <v>20</v>
@@ -43606,7 +43606,7 @@
     </row>
     <row r="562" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="5" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B562" s="5" t="s">
         <v>20</v>
@@ -43629,7 +43629,7 @@
     </row>
     <row r="563" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="5" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B563" s="5" t="s">
         <v>40</v>
@@ -43652,7 +43652,7 @@
     </row>
     <row r="564" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B564" s="5" t="s">
         <v>36</v>
@@ -43675,7 +43675,7 @@
     </row>
     <row r="565" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="5" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B565" s="5" t="s">
         <v>23</v>
@@ -43698,7 +43698,7 @@
     </row>
     <row r="566" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="5" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B566" s="5" t="s">
         <v>118</v>
@@ -43721,7 +43721,7 @@
     </row>
     <row r="567" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="5" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B567" s="5" t="s">
         <v>106</v>
@@ -43744,7 +43744,7 @@
     </row>
     <row r="568" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="5" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B568" s="5" t="s">
         <v>140</v>
@@ -43767,7 +43767,7 @@
     </row>
     <row r="569" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="5" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B569" s="5" t="s">
         <v>129</v>
@@ -43790,7 +43790,7 @@
     </row>
     <row r="570" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="5" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B570" s="5" t="s">
         <v>61</v>
@@ -43813,7 +43813,7 @@
     </row>
     <row r="571" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B571" s="5" t="s">
         <v>38</v>
@@ -43836,7 +43836,7 @@
     </row>
     <row r="572" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="5" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B572" s="5" t="s">
         <v>38</v>
@@ -43859,7 +43859,7 @@
     </row>
     <row r="573" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B573" s="5" t="s">
         <v>140</v>
@@ -43882,7 +43882,7 @@
     </row>
     <row r="574" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B574" s="5" t="s">
         <v>44</v>
@@ -43905,7 +43905,7 @@
     </row>
     <row r="575" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B575" s="5" t="s">
         <v>13</v>
@@ -43928,7 +43928,7 @@
     </row>
     <row r="576" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B576" s="5" t="s">
         <v>98</v>
@@ -43951,7 +43951,7 @@
     </row>
     <row r="577" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="5" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B577" s="5" t="s">
         <v>53</v>
@@ -43974,7 +43974,7 @@
     </row>
     <row r="578" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="5" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B578" s="5" t="s">
         <v>25</v>
@@ -43997,7 +43997,7 @@
     </row>
     <row r="579" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B579" s="5" t="s">
         <v>36</v>
@@ -44020,7 +44020,7 @@
     </row>
     <row r="580" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="5" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B580" s="5" t="s">
         <v>23</v>
@@ -44043,7 +44043,7 @@
     </row>
     <row r="581" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="5" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B581" s="5" t="s">
         <v>42</v>
@@ -44066,7 +44066,7 @@
     </row>
     <row r="582" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="5" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B582" s="5" t="s">
         <v>42</v>
@@ -44089,7 +44089,7 @@
     </row>
     <row r="583" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B583" s="5" t="s">
         <v>17</v>
@@ -44112,7 +44112,7 @@
     </row>
     <row r="584" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B584" s="5" t="s">
         <v>83</v>
@@ -44135,7 +44135,7 @@
     </row>
     <row r="585" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="5" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B585" s="5" t="s">
         <v>98</v>
@@ -44158,7 +44158,7 @@
     </row>
     <row r="586" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="5" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B586" s="5" t="s">
         <v>92</v>
@@ -44181,7 +44181,7 @@
     </row>
     <row r="587" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="5" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B587" s="5" t="s">
         <v>92</v>
@@ -44204,7 +44204,7 @@
     </row>
     <row r="588" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="5" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B588" s="5" t="s">
         <v>28</v>
@@ -44227,7 +44227,7 @@
     </row>
     <row r="589" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="5" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B589" s="5" t="s">
         <v>129</v>
@@ -44250,7 +44250,7 @@
     </row>
     <row r="590" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="5" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B590" s="5" t="s">
         <v>140</v>
@@ -44273,7 +44273,7 @@
     </row>
     <row r="591" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B591" s="5" t="s">
         <v>83</v>
@@ -44296,7 +44296,7 @@
     </row>
     <row r="592" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B592" s="5" t="s">
         <v>53</v>
@@ -44319,7 +44319,7 @@
     </row>
     <row r="593" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B593" s="5" t="s">
         <v>23</v>
@@ -44342,7 +44342,7 @@
     </row>
     <row r="594" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B594" s="5" t="s">
         <v>92</v>
@@ -44365,7 +44365,7 @@
     </row>
     <row r="595" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B595" s="5" t="s">
         <v>8</v>
@@ -44388,7 +44388,7 @@
     </row>
     <row r="596" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="5" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B596" s="5" t="s">
         <v>124</v>
@@ -44411,7 +44411,7 @@
     </row>
     <row r="597" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="5" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B597" s="5" t="s">
         <v>106</v>
@@ -44434,7 +44434,7 @@
     </row>
     <row r="598" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="5" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B598" s="5" t="s">
         <v>36</v>
@@ -44457,7 +44457,7 @@
     </row>
     <row r="599" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="5" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B599" s="5" t="s">
         <v>25</v>
@@ -44480,7 +44480,7 @@
     </row>
     <row r="600" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B600" s="5" t="s">
         <v>36</v>
@@ -44503,7 +44503,7 @@
     </row>
     <row r="601" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="5" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B601" s="5" t="s">
         <v>36</v>
@@ -44526,7 +44526,7 @@
     </row>
     <row r="602" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="5" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B602" s="5" t="s">
         <v>92</v>
@@ -44549,7 +44549,7 @@
     </row>
     <row r="603" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B603" s="5" t="s">
         <v>129</v>
@@ -44572,7 +44572,7 @@
     </row>
     <row r="604" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="5" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B604" s="5" t="s">
         <v>28</v>
@@ -44595,7 +44595,7 @@
     </row>
     <row r="605" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="5" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B605" s="5" t="s">
         <v>131</v>
@@ -44618,7 +44618,7 @@
     </row>
     <row r="606" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="5" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B606" s="5" t="s">
         <v>38</v>
@@ -44641,7 +44641,7 @@
     </row>
     <row r="607" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="5" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B607" s="5" t="s">
         <v>129</v>
@@ -44664,7 +44664,7 @@
     </row>
     <row r="608" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="5" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B608" s="5" t="s">
         <v>83</v>
@@ -44687,7 +44687,7 @@
     </row>
     <row r="609" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="5" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B609" s="5" t="s">
         <v>34</v>
@@ -44710,7 +44710,7 @@
     </row>
     <row r="610" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="5" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B610" s="5" t="s">
         <v>131</v>
@@ -44733,7 +44733,7 @@
     </row>
     <row r="611" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B611" s="5" t="s">
         <v>38</v>
@@ -44756,7 +44756,7 @@
     </row>
     <row r="612" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B612" s="5" t="s">
         <v>118</v>
@@ -44779,7 +44779,7 @@
     </row>
     <row r="613" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B613" s="5" t="s">
         <v>118</v>
@@ -44802,7 +44802,7 @@
     </row>
     <row r="614" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B614" s="5" t="s">
         <v>20</v>
@@ -44825,7 +44825,7 @@
     </row>
     <row r="615" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B615" s="5" t="s">
         <v>20</v>
@@ -44848,7 +44848,7 @@
     </row>
     <row r="616" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B616" s="5" t="s">
         <v>20</v>
@@ -44871,7 +44871,7 @@
     </row>
     <row r="617" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B617" s="5" t="s">
         <v>40</v>
@@ -44894,7 +44894,7 @@
     </row>
     <row r="618" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="5" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B618" s="5" t="s">
         <v>40</v>
@@ -44917,7 +44917,7 @@
     </row>
     <row r="619" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="5" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B619" s="5" t="s">
         <v>129</v>
@@ -44940,7 +44940,7 @@
     </row>
     <row r="620" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="5" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B620" s="5" t="s">
         <v>83</v>
@@ -44963,7 +44963,7 @@
     </row>
     <row r="621" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B621" s="5" t="s">
         <v>36</v>
@@ -44986,7 +44986,7 @@
     </row>
     <row r="622" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="5" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B622" s="5" t="s">
         <v>23</v>
@@ -45009,7 +45009,7 @@
     </row>
     <row r="623" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B623" s="5" t="s">
         <v>34</v>
@@ -45032,7 +45032,7 @@
     </row>
     <row r="624" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B624" s="5" t="s">
         <v>17</v>
@@ -45055,7 +45055,7 @@
     </row>
     <row r="625" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B625" s="5" t="s">
         <v>140</v>
@@ -45078,7 +45078,7 @@
     </row>
     <row r="626" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="5" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B626" s="5" t="s">
         <v>83</v>
@@ -45101,7 +45101,7 @@
     </row>
     <row r="627" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="5" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B627" s="5" t="s">
         <v>25</v>
@@ -45124,7 +45124,7 @@
     </row>
     <row r="628" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B628" s="5" t="s">
         <v>83</v>
@@ -45147,7 +45147,7 @@
     </row>
     <row r="629" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="5" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B629" s="5" t="s">
         <v>25</v>
@@ -45170,7 +45170,7 @@
     </row>
     <row r="630" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B630" s="5" t="s">
         <v>44</v>
@@ -45193,7 +45193,7 @@
     </row>
     <row r="631" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="5" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B631" s="5" t="s">
         <v>34</v>
@@ -45216,7 +45216,7 @@
     </row>
     <row r="632" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="5" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B632" s="5" t="s">
         <v>131</v>
@@ -45239,7 +45239,7 @@
     </row>
     <row r="633" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="5" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B633" s="5" t="s">
         <v>136</v>
@@ -45262,7 +45262,7 @@
     </row>
     <row r="634" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="5" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B634" s="5" t="s">
         <v>15</v>
@@ -45285,7 +45285,7 @@
     </row>
     <row r="635" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="5" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B635" s="5" t="s">
         <v>44</v>
@@ -45308,7 +45308,7 @@
     </row>
     <row r="636" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="5" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B636" s="5" t="s">
         <v>34</v>
@@ -45331,7 +45331,7 @@
     </row>
     <row r="637" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="5" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B637" s="5" t="s">
         <v>13</v>
@@ -45354,7 +45354,7 @@
     </row>
     <row r="638" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B638" s="5" t="s">
         <v>25</v>
@@ -45377,7 +45377,7 @@
     </row>
     <row r="639" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B639" s="5" t="s">
         <v>25</v>
@@ -45400,7 +45400,7 @@
     </row>
     <row r="640" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B640" s="5" t="s">
         <v>34</v>
@@ -45423,7 +45423,7 @@
     </row>
     <row r="641" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B641" s="5" t="s">
         <v>140</v>
@@ -45446,7 +45446,7 @@
     </row>
     <row r="642" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="5" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B642" s="5" t="s">
         <v>92</v>
@@ -45469,7 +45469,7 @@
     </row>
     <row r="643" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B643" s="5" t="s">
         <v>131</v>
@@ -45492,7 +45492,7 @@
     </row>
     <row r="644" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="5" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B644" s="5" t="s">
         <v>44</v>
@@ -45515,7 +45515,7 @@
     </row>
     <row r="645" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="5" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B645" s="5" t="s">
         <v>42</v>
@@ -45538,7 +45538,7 @@
     </row>
     <row r="646" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="5" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B646" s="5" t="s">
         <v>106</v>
@@ -45561,7 +45561,7 @@
     </row>
     <row r="647" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="5" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B647" s="5" t="s">
         <v>140</v>
@@ -45584,7 +45584,7 @@
     </row>
     <row r="648" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="5" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B648" s="5" t="s">
         <v>129</v>
@@ -45607,7 +45607,7 @@
     </row>
     <row r="649" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="5" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B649" s="5" t="s">
         <v>34</v>
@@ -45630,7 +45630,7 @@
     </row>
     <row r="650" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="5" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B650" s="5" t="s">
         <v>15</v>
@@ -45653,7 +45653,7 @@
     </row>
     <row r="651" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="5" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B651" s="5" t="s">
         <v>15</v>
@@ -45676,7 +45676,7 @@
     </row>
     <row r="652" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="5" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B652" s="5" t="s">
         <v>83</v>
@@ -45699,7 +45699,7 @@
     </row>
     <row r="653" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B653" s="5" t="s">
         <v>129</v>
@@ -45722,7 +45722,7 @@
     </row>
     <row r="654" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B654" s="5" t="s">
         <v>83</v>
@@ -45745,7 +45745,7 @@
     </row>
     <row r="655" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="5" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B655" s="5" t="s">
         <v>36</v>
@@ -45768,7 +45768,7 @@
     </row>
     <row r="656" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="5" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B656" s="5" t="s">
         <v>129</v>
@@ -45791,7 +45791,7 @@
     </row>
     <row r="657" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="5" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B657" s="5" t="s">
         <v>129</v>
@@ -45814,7 +45814,7 @@
     </row>
     <row r="658" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="5" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B658" s="5" t="s">
         <v>25</v>
@@ -45837,7 +45837,7 @@
     </row>
     <row r="659" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B659" s="5" t="s">
         <v>44</v>
@@ -45860,7 +45860,7 @@
     </row>
     <row r="660" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="5" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B660" s="5" t="s">
         <v>44</v>
@@ -45883,7 +45883,7 @@
     </row>
     <row r="661" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B661" s="5" t="s">
         <v>15</v>
@@ -45906,7 +45906,7 @@
     </row>
     <row r="662" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="5" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B662" s="5" t="s">
         <v>28</v>
@@ -45929,7 +45929,7 @@
     </row>
     <row r="663" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="5" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B663" s="5" t="s">
         <v>28</v>
@@ -45952,7 +45952,7 @@
     </row>
     <row r="664" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="5" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B664" s="5" t="s">
         <v>131</v>
@@ -45975,7 +45975,7 @@
     </row>
     <row r="665" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="5" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B665" s="5" t="s">
         <v>38</v>
@@ -45998,7 +45998,7 @@
     </row>
     <row r="666" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="5" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B666" s="5" t="s">
         <v>129</v>
@@ -46021,7 +46021,7 @@
     </row>
     <row r="667" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B667" s="5" t="s">
         <v>129</v>
@@ -46044,7 +46044,7 @@
     </row>
     <row r="668" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="5" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B668" s="5" t="s">
         <v>129</v>
@@ -46067,7 +46067,7 @@
     </row>
     <row r="669" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="5" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B669" s="5" t="s">
         <v>83</v>
@@ -46090,7 +46090,7 @@
     </row>
     <row r="670" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B670" s="5" t="s">
         <v>83</v>
@@ -46113,7 +46113,7 @@
     </row>
     <row r="671" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="5" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B671" s="5" t="s">
         <v>118</v>
@@ -46136,7 +46136,7 @@
     </row>
     <row r="672" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="5" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B672" s="5" t="s">
         <v>38</v>
@@ -46159,7 +46159,7 @@
     </row>
     <row r="673" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="5" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B673" s="5" t="s">
         <v>129</v>
@@ -46182,7 +46182,7 @@
     </row>
     <row r="674" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B674" s="5" t="s">
         <v>20</v>
@@ -46205,7 +46205,7 @@
     </row>
     <row r="675" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="5" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B675" s="5" t="s">
         <v>40</v>
@@ -46228,7 +46228,7 @@
     </row>
     <row r="676" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="5" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B676" s="5" t="s">
         <v>40</v>
@@ -46251,7 +46251,7 @@
     </row>
     <row r="677" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="5" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B677" s="5" t="s">
         <v>23</v>
@@ -46274,7 +46274,7 @@
     </row>
     <row r="678" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="5" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B678" s="5" t="s">
         <v>23</v>
@@ -46297,7 +46297,7 @@
     </row>
     <row r="679" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="5" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B679" s="5" t="s">
         <v>98</v>
@@ -46320,7 +46320,7 @@
     </row>
     <row r="680" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="5" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B680" s="5" t="s">
         <v>20</v>
@@ -46343,7 +46343,7 @@
     </row>
     <row r="681" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B681" s="5" t="s">
         <v>61</v>
@@ -46366,7 +46366,7 @@
     </row>
     <row r="682" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="5" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B682" s="5" t="s">
         <v>53</v>
@@ -46389,7 +46389,7 @@
     </row>
     <row r="683" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="5" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B683" s="5" t="s">
         <v>53</v>
@@ -46412,7 +46412,7 @@
     </row>
     <row r="684" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="5" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B684" s="5" t="s">
         <v>44</v>
@@ -46435,7 +46435,7 @@
     </row>
     <row r="685" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B685" s="5" t="s">
         <v>106</v>
@@ -46458,7 +46458,7 @@
     </row>
     <row r="686" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="5" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B686" s="5" t="s">
         <v>17</v>
@@ -46481,7 +46481,7 @@
     </row>
     <row r="687" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="5" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B687" s="5" t="s">
         <v>44</v>
@@ -46504,7 +46504,7 @@
     </row>
     <row r="688" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="5" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B688" s="5" t="s">
         <v>163</v>
@@ -46527,7 +46527,7 @@
     </row>
     <row r="689" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="5" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B689" s="5" t="s">
         <v>83</v>
@@ -46550,7 +46550,7 @@
     </row>
     <row r="690" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="5" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B690" s="5" t="s">
         <v>92</v>
@@ -46573,7 +46573,7 @@
     </row>
     <row r="691" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="5" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B691" s="5" t="s">
         <v>34</v>
@@ -46596,7 +46596,7 @@
     </row>
     <row r="692" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="5" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B692" s="5" t="s">
         <v>34</v>
@@ -46619,7 +46619,7 @@
     </row>
     <row r="693" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="5" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B693" s="5" t="s">
         <v>34</v>
@@ -46642,7 +46642,7 @@
     </row>
     <row r="694" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="5" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B694" s="5" t="s">
         <v>42</v>
@@ -46665,7 +46665,7 @@
     </row>
     <row r="695" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="5" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B695" s="5" t="s">
         <v>42</v>
@@ -46688,7 +46688,7 @@
     </row>
     <row r="696" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="5" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B696" s="5" t="s">
         <v>8</v>
@@ -46711,7 +46711,7 @@
     </row>
     <row r="697" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="5" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B697" s="5" t="s">
         <v>38</v>
@@ -46734,7 +46734,7 @@
     </row>
     <row r="698" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B698" s="5" t="s">
         <v>106</v>
@@ -46757,7 +46757,7 @@
     </row>
     <row r="699" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B699" s="5" t="s">
         <v>129</v>
@@ -46780,7 +46780,7 @@
     </row>
     <row r="700" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B700" s="5" t="s">
         <v>129</v>
@@ -46803,7 +46803,7 @@
     </row>
     <row r="701" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="5" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B701" s="5" t="s">
         <v>42</v>
@@ -46826,7 +46826,7 @@
     </row>
     <row r="702" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="5" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B702" s="5" t="s">
         <v>124</v>
@@ -46849,7 +46849,7 @@
     </row>
     <row r="703" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="5" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B703" s="5" t="s">
         <v>124</v>
@@ -46872,7 +46872,7 @@
     </row>
     <row r="704" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B704" s="5" t="s">
         <v>83</v>
@@ -46895,7 +46895,7 @@
     </row>
     <row r="705" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B705" s="5" t="s">
         <v>98</v>
@@ -46918,7 +46918,7 @@
     </row>
     <row r="706" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="5" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B706" s="5" t="s">
         <v>42</v>
@@ -46941,7 +46941,7 @@
     </row>
     <row r="707" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B707" s="5" t="s">
         <v>92</v>
@@ -46964,7 +46964,7 @@
     </row>
     <row r="708" customFormat="false" ht="27.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B708" s="5" t="s">
         <v>59</v>
@@ -46987,7 +46987,7 @@
     </row>
     <row r="709" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B709" s="5" t="s">
         <v>59</v>
@@ -47026,8 +47026,8 @@
   </sheetPr>
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A207" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A223" activeCellId="1" sqref="A1 A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -47360,7 +47360,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>36</v>
@@ -51270,7 +51270,7 @@
     </row>
     <row r="185" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>786</v>
+        <v>387</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>15</v>
@@ -52006,7 +52006,7 @@
     </row>
     <row r="217" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>17</v>
@@ -52144,7 +52144,7 @@
     </row>
     <row r="223" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
-        <v>787</v>
+        <v>410</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>28</v>
@@ -52535,7 +52535,7 @@
     </row>
     <row r="240" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>20</v>
@@ -52581,7 +52581,7 @@
     </row>
     <row r="242" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>211</v>
@@ -52949,7 +52949,7 @@
     </row>
     <row r="258" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>53</v>
@@ -53018,7 +53018,7 @@
     </row>
     <row r="261" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>34</v>
@@ -53133,7 +53133,7 @@
     </row>
     <row r="266" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>36</v>
@@ -53156,7 +53156,7 @@
     </row>
     <row r="267" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>17</v>
@@ -53271,7 +53271,7 @@
     </row>
     <row r="272" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>23</v>
@@ -53386,7 +53386,7 @@
     </row>
     <row r="277" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>83</v>
@@ -53455,7 +53455,7 @@
     </row>
     <row r="280" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>8</v>
@@ -53616,7 +53616,7 @@
     </row>
     <row r="287" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>83</v>
@@ -53662,7 +53662,7 @@
     </row>
     <row r="289" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>40</v>
@@ -53731,7 +53731,7 @@
     </row>
     <row r="292" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>92</v>
@@ -53869,7 +53869,7 @@
     </row>
     <row r="298" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>218</v>
@@ -53892,7 +53892,7 @@
     </row>
     <row r="299" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>124</v>
@@ -53977,8 +53977,8 @@
   </sheetPr>
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A278" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A295" activeCellId="1" sqref="A1 A295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -53987,7 +53987,7 @@
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -54007,7 +54007,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54196,7 +54196,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>11</v>
@@ -54219,7 +54219,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
@@ -55231,7 +55231,7 @@
     </row>
     <row r="55" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>11</v>
@@ -55300,7 +55300,7 @@
     </row>
     <row r="58" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>127</v>
@@ -55369,7 +55369,7 @@
     </row>
     <row r="61" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>127</v>
@@ -55461,7 +55461,7 @@
     </row>
     <row r="65" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>127</v>
@@ -55781,7 +55781,7 @@
         <v>67.36</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
         <v>96</v>
       </c>
@@ -55965,9 +55965,9 @@
         <v>67.23</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>11</v>
@@ -56103,7 +56103,7 @@
         <v>65.81</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
         <v>143</v>
       </c>
@@ -56172,7 +56172,7 @@
         <v>65.33</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
         <v>105</v>
       </c>
@@ -58382,7 +58382,7 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="8" t="s">
-        <v>786</v>
+        <v>387</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>127</v>
@@ -59371,7 +59371,7 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>32</v>
@@ -59532,7 +59532,7 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>11</v>
@@ -59624,7 +59624,7 @@
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>113</v>
@@ -59716,7 +59716,7 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>113</v>
@@ -60084,7 +60084,7 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>113</v>
@@ -60199,7 +60199,7 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>113</v>
@@ -60567,7 +60567,7 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>113</v>
@@ -60590,7 +60590,7 @@
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>11</v>
@@ -60636,7 +60636,7 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>11</v>
@@ -60705,7 +60705,7 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>11</v>
@@ -60728,7 +60728,7 @@
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>113</v>
@@ -60751,7 +60751,7 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="8" t="s">
-        <v>787</v>
+        <v>410</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>127</v>
@@ -60797,7 +60797,7 @@
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>11</v>
@@ -60820,7 +60820,7 @@
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B298" s="8" t="s">
         <v>9</v>
@@ -60843,7 +60843,7 @@
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B299" s="8" t="s">
         <v>11</v>
@@ -60866,7 +60866,7 @@
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>127</v>
@@ -60889,7 +60889,7 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>127</v>
@@ -60928,8 +60928,8 @@
   </sheetPr>
   <dimension ref="A1:G716"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A277" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A291" activeCellId="1" sqref="A1 A291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -60962,7 +60962,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61151,7 +61151,7 @@
     </row>
     <row r="10" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>11</v>
@@ -61220,7 +61220,7 @@
     </row>
     <row r="13" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>11</v>
@@ -62209,7 +62209,7 @@
     </row>
     <row r="56" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>11</v>
@@ -62554,7 +62554,7 @@
     </row>
     <row r="71" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="14" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>127</v>
@@ -62577,7 +62577,7 @@
     </row>
     <row r="72" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>127</v>
@@ -62623,7 +62623,7 @@
     </row>
     <row r="74" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>127</v>
@@ -62807,7 +62807,7 @@
     </row>
     <row r="82" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="14" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>11</v>
@@ -65452,7 +65452,7 @@
     </row>
     <row r="197" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="14" t="s">
-        <v>786</v>
+        <v>387</v>
       </c>
       <c r="B197" s="14" t="s">
         <v>127</v>
@@ -66510,7 +66510,7 @@
     </row>
     <row r="243" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B243" s="14" t="s">
         <v>113</v>
@@ -66533,7 +66533,7 @@
     </row>
     <row r="244" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B244" s="14" t="s">
         <v>11</v>
@@ -66786,7 +66786,7 @@
     </row>
     <row r="255" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B255" s="14" t="s">
         <v>32</v>
@@ -66855,7 +66855,7 @@
     </row>
     <row r="258" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B258" s="14" t="s">
         <v>127</v>
@@ -66993,7 +66993,7 @@
     </row>
     <row r="264" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B264" s="14" t="s">
         <v>11</v>
@@ -67062,7 +67062,7 @@
     </row>
     <row r="267" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B267" s="14" t="s">
         <v>127</v>
@@ -67085,7 +67085,7 @@
     </row>
     <row r="268" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B268" s="14" t="s">
         <v>11</v>
@@ -67108,7 +67108,7 @@
     </row>
     <row r="269" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B269" s="14" t="s">
         <v>113</v>
@@ -67200,7 +67200,7 @@
     </row>
     <row r="273" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="14" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B273" s="14" t="s">
         <v>113</v>
@@ -67315,7 +67315,7 @@
     </row>
     <row r="278" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="14" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B278" s="14" t="s">
         <v>11</v>
@@ -67453,7 +67453,7 @@
     </row>
     <row r="284" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="14" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B284" s="14" t="s">
         <v>113</v>
@@ -67591,7 +67591,7 @@
     </row>
     <row r="290" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B290" s="14" t="s">
         <v>50</v>
@@ -67614,7 +67614,7 @@
     </row>
     <row r="291" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="14" t="s">
-        <v>787</v>
+        <v>410</v>
       </c>
       <c r="B291" s="14" t="s">
         <v>127</v>
@@ -67660,7 +67660,7 @@
     </row>
     <row r="293" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B293" s="14" t="s">
         <v>11</v>
@@ -67867,7 +67867,7 @@
     </row>
     <row r="302" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="14" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B302" s="14" t="s">
         <v>113</v>
@@ -67890,7 +67890,7 @@
     </row>
     <row r="303" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B303" s="14" t="s">
         <v>113</v>
@@ -67913,7 +67913,7 @@
     </row>
     <row r="304" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="14" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B304" s="14" t="s">
         <v>11</v>
@@ -67982,7 +67982,7 @@
     </row>
     <row r="307" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B307" s="14" t="s">
         <v>9</v>
@@ -68005,7 +68005,7 @@
     </row>
     <row r="308" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B308" s="14" t="s">
         <v>11</v>
@@ -68028,7 +68028,7 @@
     </row>
     <row r="309" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B309" s="14" t="s">
         <v>11</v>
@@ -68097,7 +68097,7 @@
     </row>
     <row r="312" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B312" s="14" t="s">
         <v>113</v>
@@ -68143,7 +68143,7 @@
     </row>
     <row r="314" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B314" s="14" t="s">
         <v>108</v>
@@ -68212,7 +68212,7 @@
     </row>
     <row r="317" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B317" s="14" t="s">
         <v>11</v>
@@ -68258,7 +68258,7 @@
     </row>
     <row r="319" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B319" s="14" t="s">
         <v>9</v>
@@ -68304,7 +68304,7 @@
     </row>
     <row r="321" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B321" s="14" t="s">
         <v>108</v>
@@ -68350,7 +68350,7 @@
     </row>
     <row r="323" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B323" s="14" t="s">
         <v>127</v>
@@ -68373,7 +68373,7 @@
     </row>
     <row r="324" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B324" s="14" t="s">
         <v>9</v>
@@ -68419,7 +68419,7 @@
     </row>
     <row r="326" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B326" s="14" t="s">
         <v>11</v>
@@ -68442,7 +68442,7 @@
     </row>
     <row r="327" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B327" s="14" t="s">
         <v>11</v>
@@ -68465,7 +68465,7 @@
     </row>
     <row r="328" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B328" s="14" t="s">
         <v>127</v>
@@ -68488,7 +68488,7 @@
     </row>
     <row r="329" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B329" s="14" t="s">
         <v>113</v>
@@ -68511,7 +68511,7 @@
     </row>
     <row r="330" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="14" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B330" s="14" t="s">
         <v>11</v>
@@ -68557,7 +68557,7 @@
     </row>
     <row r="332" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B332" s="14" t="s">
         <v>113</v>
@@ -68580,7 +68580,7 @@
     </row>
     <row r="333" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B333" s="14" t="s">
         <v>113</v>
@@ -68603,7 +68603,7 @@
     </row>
     <row r="334" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B334" s="14" t="s">
         <v>11</v>
@@ -68626,7 +68626,7 @@
     </row>
     <row r="335" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="14" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B335" s="14" t="s">
         <v>108</v>
@@ -68672,7 +68672,7 @@
     </row>
     <row r="337" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B337" s="14" t="s">
         <v>127</v>
@@ -68695,7 +68695,7 @@
     </row>
     <row r="338" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="14" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B338" s="14" t="s">
         <v>11</v>
@@ -68718,7 +68718,7 @@
     </row>
     <row r="339" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B339" s="14" t="s">
         <v>11</v>
@@ -68741,7 +68741,7 @@
     </row>
     <row r="340" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B340" s="14" t="s">
         <v>108</v>
@@ -68764,7 +68764,7 @@
     </row>
     <row r="341" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="14" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B341" s="14" t="s">
         <v>32</v>
@@ -68833,7 +68833,7 @@
     </row>
     <row r="344" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B344" s="14" t="s">
         <v>50</v>
@@ -68856,7 +68856,7 @@
     </row>
     <row r="345" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B345" s="14" t="s">
         <v>11</v>
@@ -68879,7 +68879,7 @@
     </row>
     <row r="346" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B346" s="14" t="s">
         <v>11</v>
@@ -68902,7 +68902,7 @@
     </row>
     <row r="347" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B347" s="14" t="s">
         <v>127</v>
@@ -68925,7 +68925,7 @@
     </row>
     <row r="348" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B348" s="14" t="s">
         <v>9</v>
@@ -68948,7 +68948,7 @@
     </row>
     <row r="349" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B349" s="14" t="s">
         <v>113</v>
@@ -68971,7 +68971,7 @@
     </row>
     <row r="350" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="14" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B350" s="14" t="s">
         <v>11</v>
@@ -68994,7 +68994,7 @@
     </row>
     <row r="351" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B351" s="14" t="s">
         <v>50</v>
@@ -69017,7 +69017,7 @@
     </row>
     <row r="352" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B352" s="14" t="s">
         <v>9</v>
@@ -69040,7 +69040,7 @@
     </row>
     <row r="353" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="14" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B353" s="14" t="s">
         <v>127</v>
@@ -69063,7 +69063,7 @@
     </row>
     <row r="354" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="14" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B354" s="14" t="s">
         <v>50</v>
@@ -69109,7 +69109,7 @@
     </row>
     <row r="356" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="14" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B356" s="14" t="s">
         <v>11</v>
@@ -69132,7 +69132,7 @@
     </row>
     <row r="357" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="14" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B357" s="14" t="s">
         <v>11</v>
@@ -69155,7 +69155,7 @@
     </row>
     <row r="358" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B358" s="14" t="s">
         <v>32</v>
@@ -69178,7 +69178,7 @@
     </row>
     <row r="359" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B359" s="14" t="s">
         <v>9</v>
@@ -69201,7 +69201,7 @@
     </row>
     <row r="360" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B360" s="14" t="s">
         <v>108</v>
@@ -69224,7 +69224,7 @@
     </row>
     <row r="361" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B361" s="14" t="s">
         <v>50</v>
@@ -69247,7 +69247,7 @@
     </row>
     <row r="362" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B362" s="14" t="s">
         <v>127</v>
@@ -69270,7 +69270,7 @@
     </row>
     <row r="363" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="14" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B363" s="14" t="s">
         <v>9</v>
@@ -69293,7 +69293,7 @@
     </row>
     <row r="364" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="14" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B364" s="14" t="s">
         <v>9</v>
@@ -69339,7 +69339,7 @@
     </row>
     <row r="366" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B366" s="14" t="s">
         <v>9</v>
@@ -69362,7 +69362,7 @@
     </row>
     <row r="367" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B367" s="14" t="s">
         <v>11</v>
@@ -69385,7 +69385,7 @@
     </row>
     <row r="368" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B368" s="14" t="s">
         <v>11</v>
@@ -69408,7 +69408,7 @@
     </row>
     <row r="369" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="14" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B369" s="14" t="s">
         <v>11</v>
@@ -69431,7 +69431,7 @@
     </row>
     <row r="370" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B370" s="14" t="s">
         <v>11</v>
@@ -69454,7 +69454,7 @@
     </row>
     <row r="371" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B371" s="14" t="s">
         <v>127</v>
@@ -69477,7 +69477,7 @@
     </row>
     <row r="372" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="14" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B372" s="14" t="s">
         <v>11</v>
@@ -69500,7 +69500,7 @@
     </row>
     <row r="373" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B373" s="14" t="s">
         <v>11</v>
@@ -69523,7 +69523,7 @@
     </row>
     <row r="374" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B374" s="14" t="s">
         <v>113</v>
@@ -69546,7 +69546,7 @@
     </row>
     <row r="375" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B375" s="14" t="s">
         <v>11</v>
@@ -69569,7 +69569,7 @@
     </row>
     <row r="376" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="14" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B376" s="14" t="s">
         <v>113</v>
@@ -69592,7 +69592,7 @@
     </row>
     <row r="377" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="14" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B377" s="14" t="s">
         <v>113</v>
@@ -69615,7 +69615,7 @@
     </row>
     <row r="378" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="14" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B378" s="14" t="s">
         <v>11</v>
@@ -69638,7 +69638,7 @@
     </row>
     <row r="379" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B379" s="14" t="s">
         <v>11</v>
@@ -69661,7 +69661,7 @@
     </row>
     <row r="380" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B380" s="14" t="s">
         <v>127</v>
@@ -69684,7 +69684,7 @@
     </row>
     <row r="381" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B381" s="14" t="s">
         <v>127</v>
@@ -69707,7 +69707,7 @@
     </row>
     <row r="382" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B382" s="14" t="s">
         <v>113</v>
@@ -69730,7 +69730,7 @@
     </row>
     <row r="383" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="14" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B383" s="14" t="s">
         <v>32</v>
@@ -69753,7 +69753,7 @@
     </row>
     <row r="384" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="14" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B384" s="14" t="s">
         <v>113</v>
@@ -69776,7 +69776,7 @@
     </row>
     <row r="385" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="14" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B385" s="14" t="s">
         <v>32</v>
@@ -69799,7 +69799,7 @@
     </row>
     <row r="386" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B386" s="14" t="s">
         <v>127</v>
@@ -69822,7 +69822,7 @@
     </row>
     <row r="387" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B387" s="14" t="s">
         <v>110</v>
@@ -69845,7 +69845,7 @@
     </row>
     <row r="388" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B388" s="14" t="s">
         <v>9</v>
@@ -69868,7 +69868,7 @@
     </row>
     <row r="389" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="14" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B389" s="14" t="s">
         <v>11</v>
@@ -69891,7 +69891,7 @@
     </row>
     <row r="390" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B390" s="14" t="s">
         <v>32</v>
@@ -69914,7 +69914,7 @@
     </row>
     <row r="391" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="14" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B391" s="14" t="s">
         <v>9</v>
@@ -69937,7 +69937,7 @@
     </row>
     <row r="392" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="14" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B392" s="14" t="s">
         <v>11</v>
@@ -69960,7 +69960,7 @@
     </row>
     <row r="393" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="14" t="s">
-        <v>409</v>
+        <v>810</v>
       </c>
       <c r="B393" s="14" t="s">
         <v>127</v>
@@ -69983,7 +69983,7 @@
     </row>
     <row r="394" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="14" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B394" s="14" t="s">
         <v>11</v>
@@ -70006,7 +70006,7 @@
     </row>
     <row r="395" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="14" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B395" s="14" t="s">
         <v>32</v>
@@ -70029,7 +70029,7 @@
     </row>
     <row r="396" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="14" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B396" s="14" t="s">
         <v>32</v>
@@ -70052,7 +70052,7 @@
     </row>
     <row r="397" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B397" s="14" t="s">
         <v>11</v>
@@ -70075,7 +70075,7 @@
     </row>
     <row r="398" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="14" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B398" s="14" t="s">
         <v>11</v>
@@ -70098,7 +70098,7 @@
     </row>
     <row r="399" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B399" s="14" t="s">
         <v>11</v>
@@ -70144,7 +70144,7 @@
     </row>
     <row r="401" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B401" s="14" t="s">
         <v>32</v>
@@ -70167,7 +70167,7 @@
     </row>
     <row r="402" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B402" s="14" t="s">
         <v>127</v>
@@ -70190,7 +70190,7 @@
     </row>
     <row r="403" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B403" s="14" t="s">
         <v>127</v>
@@ -70213,7 +70213,7 @@
     </row>
     <row r="404" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B404" s="14" t="s">
         <v>9</v>
@@ -70236,7 +70236,7 @@
     </row>
     <row r="405" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="14" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B405" s="14" t="s">
         <v>11</v>
@@ -70259,7 +70259,7 @@
     </row>
     <row r="406" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B406" s="14" t="s">
         <v>32</v>
@@ -70282,7 +70282,7 @@
     </row>
     <row r="407" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B407" s="14" t="s">
         <v>113</v>
@@ -70305,7 +70305,7 @@
     </row>
     <row r="408" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="14" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B408" s="14" t="s">
         <v>11</v>
@@ -70328,7 +70328,7 @@
     </row>
     <row r="409" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B409" s="14" t="s">
         <v>108</v>
@@ -70351,7 +70351,7 @@
     </row>
     <row r="410" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B410" s="14" t="s">
         <v>50</v>
@@ -70374,7 +70374,7 @@
     </row>
     <row r="411" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B411" s="14" t="s">
         <v>113</v>
@@ -70397,7 +70397,7 @@
     </row>
     <row r="412" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="14" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B412" s="14" t="s">
         <v>113</v>
@@ -70420,7 +70420,7 @@
     </row>
     <row r="413" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B413" s="14" t="s">
         <v>113</v>
@@ -70443,7 +70443,7 @@
     </row>
     <row r="414" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B414" s="14" t="s">
         <v>11</v>
@@ -70489,7 +70489,7 @@
     </row>
     <row r="416" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B416" s="14" t="s">
         <v>9</v>
@@ -70512,7 +70512,7 @@
     </row>
     <row r="417" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="14" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B417" s="14" t="s">
         <v>11</v>
@@ -70535,7 +70535,7 @@
     </row>
     <row r="418" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B418" s="14" t="s">
         <v>32</v>
@@ -70558,7 +70558,7 @@
     </row>
     <row r="419" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B419" s="14" t="s">
         <v>32</v>
@@ -70581,7 +70581,7 @@
     </row>
     <row r="420" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B420" s="14" t="s">
         <v>32</v>
@@ -70604,7 +70604,7 @@
     </row>
     <row r="421" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B421" s="14" t="s">
         <v>9</v>
@@ -70650,7 +70650,7 @@
     </row>
     <row r="423" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B423" s="14" t="s">
         <v>11</v>
@@ -70719,7 +70719,7 @@
     </row>
     <row r="426" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="14" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B426" s="14" t="s">
         <v>127</v>
@@ -70742,7 +70742,7 @@
     </row>
     <row r="427" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="14" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B427" s="14" t="s">
         <v>11</v>
@@ -70765,7 +70765,7 @@
     </row>
     <row r="428" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B428" s="14" t="s">
         <v>11</v>
@@ -70788,7 +70788,7 @@
     </row>
     <row r="429" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="14" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B429" s="14" t="s">
         <v>32</v>
@@ -70811,7 +70811,7 @@
     </row>
     <row r="430" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="14" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B430" s="14" t="s">
         <v>32</v>
@@ -70834,7 +70834,7 @@
     </row>
     <row r="431" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="14" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B431" s="14" t="s">
         <v>113</v>
@@ -70857,7 +70857,7 @@
     </row>
     <row r="432" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="14" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B432" s="14" t="s">
         <v>11</v>
@@ -70880,7 +70880,7 @@
     </row>
     <row r="433" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="14" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B433" s="14" t="s">
         <v>32</v>
@@ -70903,7 +70903,7 @@
     </row>
     <row r="434" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="14" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B434" s="14" t="s">
         <v>127</v>
@@ -70926,7 +70926,7 @@
     </row>
     <row r="435" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="14" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B435" s="14" t="s">
         <v>127</v>
@@ -70949,7 +70949,7 @@
     </row>
     <row r="436" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B436" s="14" t="s">
         <v>110</v>
@@ -70972,7 +70972,7 @@
     </row>
     <row r="437" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B437" s="14" t="s">
         <v>11</v>
@@ -71064,7 +71064,7 @@
     </row>
     <row r="441" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B441" s="14" t="s">
         <v>9</v>
@@ -71087,7 +71087,7 @@
     </row>
     <row r="442" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="14" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B442" s="14" t="s">
         <v>113</v>
@@ -71110,7 +71110,7 @@
     </row>
     <row r="443" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="14" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B443" s="14" t="s">
         <v>113</v>
@@ -71133,7 +71133,7 @@
     </row>
     <row r="444" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="14" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B444" s="14" t="s">
         <v>113</v>
@@ -71156,7 +71156,7 @@
     </row>
     <row r="445" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="14" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B445" s="14" t="s">
         <v>50</v>
@@ -71179,7 +71179,7 @@
     </row>
     <row r="446" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="14" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B446" s="14" t="s">
         <v>127</v>
@@ -71202,7 +71202,7 @@
     </row>
     <row r="447" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B447" s="14" t="s">
         <v>127</v>
@@ -71225,7 +71225,7 @@
     </row>
     <row r="448" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B448" s="14" t="s">
         <v>9</v>
@@ -71248,7 +71248,7 @@
     </row>
     <row r="449" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="14" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B449" s="14" t="s">
         <v>11</v>
@@ -71271,7 +71271,7 @@
     </row>
     <row r="450" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="14" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B450" s="14" t="s">
         <v>11</v>
@@ -71294,7 +71294,7 @@
     </row>
     <row r="451" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="14" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B451" s="14" t="s">
         <v>32</v>
@@ -71317,7 +71317,7 @@
     </row>
     <row r="452" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="14" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B452" s="14" t="s">
         <v>127</v>
@@ -71340,7 +71340,7 @@
     </row>
     <row r="453" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B453" s="14" t="s">
         <v>9</v>
@@ -71409,7 +71409,7 @@
     </row>
     <row r="456" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="14" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B456" s="14" t="s">
         <v>11</v>
@@ -71432,7 +71432,7 @@
     </row>
     <row r="457" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B457" s="14" t="s">
         <v>127</v>
@@ -71501,7 +71501,7 @@
     </row>
     <row r="460" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="14" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B460" s="14" t="s">
         <v>11</v>
@@ -71524,7 +71524,7 @@
     </row>
     <row r="461" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="14" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B461" s="14" t="s">
         <v>11</v>
@@ -71547,7 +71547,7 @@
     </row>
     <row r="462" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="14" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B462" s="14" t="s">
         <v>32</v>
@@ -71570,7 +71570,7 @@
     </row>
     <row r="463" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="14" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B463" s="14" t="s">
         <v>127</v>
@@ -71593,7 +71593,7 @@
     </row>
     <row r="464" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="14" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B464" s="14" t="s">
         <v>9</v>
@@ -71616,7 +71616,7 @@
     </row>
     <row r="465" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="14" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B465" s="14" t="s">
         <v>9</v>
@@ -71639,7 +71639,7 @@
     </row>
     <row r="466" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="14" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B466" s="14" t="s">
         <v>9</v>
@@ -71662,7 +71662,7 @@
     </row>
     <row r="467" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="14" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B467" s="14" t="s">
         <v>113</v>
@@ -71685,7 +71685,7 @@
     </row>
     <row r="468" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="14" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B468" s="14" t="s">
         <v>11</v>
@@ -71708,7 +71708,7 @@
     </row>
     <row r="469" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="14" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B469" s="14" t="s">
         <v>32</v>
@@ -71731,7 +71731,7 @@
     </row>
     <row r="470" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="14" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B470" s="14" t="s">
         <v>32</v>
@@ -71754,7 +71754,7 @@
     </row>
     <row r="471" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B471" s="14" t="s">
         <v>127</v>
@@ -71777,7 +71777,7 @@
     </row>
     <row r="472" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="14" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B472" s="14" t="s">
         <v>9</v>
@@ -71800,7 +71800,7 @@
     </row>
     <row r="473" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="14" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B473" s="14" t="s">
         <v>9</v>
@@ -71823,7 +71823,7 @@
     </row>
     <row r="474" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="14" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B474" s="14" t="s">
         <v>113</v>
@@ -71846,7 +71846,7 @@
     </row>
     <row r="475" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="14" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B475" s="14" t="s">
         <v>11</v>
@@ -71869,7 +71869,7 @@
     </row>
     <row r="476" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="14" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B476" s="14" t="s">
         <v>11</v>
@@ -71892,7 +71892,7 @@
     </row>
     <row r="477" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="14" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B477" s="14" t="s">
         <v>32</v>
@@ -71915,7 +71915,7 @@
     </row>
     <row r="478" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="14" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B478" s="14" t="s">
         <v>9</v>
@@ -71938,7 +71938,7 @@
     </row>
     <row r="479" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="14" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B479" s="14" t="s">
         <v>9</v>
@@ -71961,7 +71961,7 @@
     </row>
     <row r="480" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="14" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B480" s="14" t="s">
         <v>11</v>
@@ -71984,7 +71984,7 @@
     </row>
     <row r="481" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="14" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B481" s="14" t="s">
         <v>32</v>
@@ -72007,7 +72007,7 @@
     </row>
     <row r="482" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="14" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B482" s="14" t="s">
         <v>32</v>
@@ -72030,7 +72030,7 @@
     </row>
     <row r="483" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="14" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B483" s="14" t="s">
         <v>32</v>
@@ -72053,7 +72053,7 @@
     </row>
     <row r="484" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="14" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B484" s="14" t="s">
         <v>32</v>
@@ -72076,7 +72076,7 @@
     </row>
     <row r="485" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B485" s="14" t="s">
         <v>127</v>
@@ -72099,7 +72099,7 @@
     </row>
     <row r="486" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="14" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B486" s="14" t="s">
         <v>386</v>
@@ -72145,7 +72145,7 @@
     </row>
     <row r="488" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="14" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B488" s="14" t="s">
         <v>32</v>
@@ -72168,7 +72168,7 @@
     </row>
     <row r="489" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="14" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B489" s="14" t="s">
         <v>32</v>
@@ -72214,7 +72214,7 @@
     </row>
     <row r="491" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B491" s="14" t="s">
         <v>110</v>
@@ -72237,7 +72237,7 @@
     </row>
     <row r="492" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="14" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B492" s="14" t="s">
         <v>11</v>
@@ -72283,7 +72283,7 @@
     </row>
     <row r="494" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B494" s="14" t="s">
         <v>127</v>
@@ -72306,7 +72306,7 @@
     </row>
     <row r="495" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="14" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B495" s="14" t="s">
         <v>9</v>
@@ -72329,7 +72329,7 @@
     </row>
     <row r="496" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="14" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B496" s="14" t="s">
         <v>11</v>
@@ -72352,7 +72352,7 @@
     </row>
     <row r="497" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B497" s="14" t="s">
         <v>11</v>
@@ -72375,7 +72375,7 @@
     </row>
     <row r="498" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="14" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B498" s="14" t="s">
         <v>32</v>
@@ -72398,7 +72398,7 @@
     </row>
     <row r="499" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="14" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B499" s="14" t="s">
         <v>32</v>
@@ -72421,7 +72421,7 @@
     </row>
     <row r="500" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="14" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B500" s="14" t="s">
         <v>32</v>
@@ -72444,7 +72444,7 @@
     </row>
     <row r="501" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B501" s="14" t="s">
         <v>11</v>
@@ -72467,7 +72467,7 @@
     </row>
     <row r="502" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B502" s="14" t="s">
         <v>11</v>
@@ -72490,7 +72490,7 @@
     </row>
     <row r="503" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="14" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B503" s="14" t="s">
         <v>11</v>
@@ -72536,7 +72536,7 @@
     </row>
     <row r="505" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="14" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B505" s="14" t="s">
         <v>32</v>
@@ -72559,7 +72559,7 @@
     </row>
     <row r="506" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="14" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B506" s="14" t="s">
         <v>32</v>
@@ -72582,7 +72582,7 @@
     </row>
     <row r="507" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="14" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B507" s="14" t="s">
         <v>127</v>
@@ -72605,7 +72605,7 @@
     </row>
     <row r="508" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="14" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B508" s="14" t="s">
         <v>110</v>
@@ -72628,7 +72628,7 @@
     </row>
     <row r="509" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="14" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B509" s="14" t="s">
         <v>9</v>
@@ -72651,7 +72651,7 @@
     </row>
     <row r="510" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B510" s="14" t="s">
         <v>11</v>
@@ -72674,7 +72674,7 @@
     </row>
     <row r="511" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B511" s="14" t="s">
         <v>11</v>
@@ -72697,7 +72697,7 @@
     </row>
     <row r="512" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="14" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B512" s="14" t="s">
         <v>50</v>
@@ -72720,7 +72720,7 @@
     </row>
     <row r="513" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="14" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B513" s="14" t="s">
         <v>32</v>
@@ -72743,7 +72743,7 @@
     </row>
     <row r="514" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="14" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B514" s="14" t="s">
         <v>127</v>
@@ -72766,7 +72766,7 @@
     </row>
     <row r="515" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="14" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B515" s="14" t="s">
         <v>127</v>
@@ -72789,7 +72789,7 @@
     </row>
     <row r="516" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="14" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B516" s="14" t="s">
         <v>127</v>
@@ -72812,7 +72812,7 @@
     </row>
     <row r="517" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="14" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B517" s="14" t="s">
         <v>9</v>
@@ -72835,7 +72835,7 @@
     </row>
     <row r="518" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="14" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B518" s="14" t="s">
         <v>9</v>
@@ -72858,7 +72858,7 @@
     </row>
     <row r="519" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B519" s="14" t="s">
         <v>11</v>
@@ -72881,7 +72881,7 @@
     </row>
     <row r="520" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B520" s="14" t="s">
         <v>11</v>
@@ -72904,7 +72904,7 @@
     </row>
     <row r="521" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="14" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B521" s="14" t="s">
         <v>32</v>
@@ -72927,7 +72927,7 @@
     </row>
     <row r="522" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="14" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B522" s="14" t="s">
         <v>32</v>
@@ -72950,7 +72950,7 @@
     </row>
     <row r="523" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="14" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B523" s="14" t="s">
         <v>32</v>
@@ -72973,7 +72973,7 @@
     </row>
     <row r="524" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="14" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B524" s="14" t="s">
         <v>127</v>
@@ -72996,7 +72996,7 @@
     </row>
     <row r="525" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="14" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B525" s="14" t="s">
         <v>9</v>
@@ -73019,7 +73019,7 @@
     </row>
     <row r="526" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="14" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B526" s="14" t="s">
         <v>9</v>
@@ -73042,7 +73042,7 @@
     </row>
     <row r="527" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="14" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B527" s="14" t="s">
         <v>9</v>
@@ -73065,7 +73065,7 @@
     </row>
     <row r="528" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="14" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B528" s="14" t="s">
         <v>9</v>
@@ -73088,7 +73088,7 @@
     </row>
     <row r="529" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="14" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B529" s="14" t="s">
         <v>11</v>
@@ -73111,7 +73111,7 @@
     </row>
     <row r="530" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="14" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B530" s="14" t="s">
         <v>32</v>
@@ -73134,7 +73134,7 @@
     </row>
     <row r="531" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="14" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B531" s="14" t="s">
         <v>32</v>
@@ -73157,7 +73157,7 @@
     </row>
     <row r="532" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="14" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B532" s="14" t="s">
         <v>32</v>
@@ -73180,7 +73180,7 @@
     </row>
     <row r="533" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="14" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B533" s="14" t="s">
         <v>32</v>
@@ -73203,7 +73203,7 @@
     </row>
     <row r="534" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="14" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B534" s="14" t="s">
         <v>32</v>
@@ -73226,7 +73226,7 @@
     </row>
     <row r="535" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="14" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B535" s="14" t="s">
         <v>127</v>
@@ -73249,7 +73249,7 @@
     </row>
     <row r="536" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="14" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B536" s="14" t="s">
         <v>9</v>
@@ -73272,7 +73272,7 @@
     </row>
     <row r="537" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="14" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B537" s="14" t="s">
         <v>113</v>
@@ -73295,7 +73295,7 @@
     </row>
     <row r="538" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="14" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B538" s="14" t="s">
         <v>11</v>
@@ -73318,7 +73318,7 @@
     </row>
     <row r="539" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B539" s="14" t="s">
         <v>11</v>
@@ -73341,7 +73341,7 @@
     </row>
     <row r="540" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="14" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B540" s="14" t="s">
         <v>11</v>
@@ -73364,7 +73364,7 @@
     </row>
     <row r="541" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="14" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B541" s="14" t="s">
         <v>32</v>
@@ -73387,7 +73387,7 @@
     </row>
     <row r="542" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B542" s="14" t="s">
         <v>32</v>
@@ -73410,7 +73410,7 @@
     </row>
     <row r="543" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="14" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B543" s="14" t="s">
         <v>110</v>
@@ -73433,7 +73433,7 @@
     </row>
     <row r="544" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="14" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B544" s="14" t="s">
         <v>9</v>
@@ -73456,7 +73456,7 @@
     </row>
     <row r="545" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="14" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B545" s="14" t="s">
         <v>9</v>
@@ -73479,7 +73479,7 @@
     </row>
     <row r="546" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="14" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B546" s="14" t="s">
         <v>9</v>
@@ -73502,7 +73502,7 @@
     </row>
     <row r="547" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="14" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B547" s="14" t="s">
         <v>11</v>
@@ -73525,7 +73525,7 @@
     </row>
     <row r="548" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="14" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B548" s="14" t="s">
         <v>32</v>
@@ -73548,7 +73548,7 @@
     </row>
     <row r="549" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="14" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B549" s="14" t="s">
         <v>32</v>
@@ -73571,7 +73571,7 @@
     </row>
     <row r="550" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B550" s="14" t="s">
         <v>9</v>
@@ -73594,7 +73594,7 @@
     </row>
     <row r="551" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="14" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B551" s="14" t="s">
         <v>9</v>
@@ -73617,7 +73617,7 @@
     </row>
     <row r="552" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="14" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B552" s="14" t="s">
         <v>9</v>
@@ -73640,7 +73640,7 @@
     </row>
     <row r="553" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="14" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B553" s="14" t="s">
         <v>11</v>
@@ -73663,7 +73663,7 @@
     </row>
     <row r="554" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="14" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B554" s="14" t="s">
         <v>11</v>
@@ -73686,7 +73686,7 @@
     </row>
     <row r="555" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="14" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B555" s="14" t="s">
         <v>32</v>
@@ -73709,7 +73709,7 @@
     </row>
     <row r="556" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="14" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B556" s="14" t="s">
         <v>32</v>
@@ -73732,7 +73732,7 @@
     </row>
     <row r="557" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="14" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B557" s="14" t="s">
         <v>127</v>
@@ -73755,7 +73755,7 @@
     </row>
     <row r="558" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="14" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B558" s="14" t="s">
         <v>127</v>
@@ -73778,7 +73778,7 @@
     </row>
     <row r="559" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="14" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B559" s="14" t="s">
         <v>9</v>
@@ -73801,7 +73801,7 @@
     </row>
     <row r="560" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="14" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B560" s="14" t="s">
         <v>9</v>
@@ -73824,7 +73824,7 @@
     </row>
     <row r="561" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="14" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B561" s="14" t="s">
         <v>113</v>
@@ -73847,7 +73847,7 @@
     </row>
     <row r="562" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="14" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B562" s="14" t="s">
         <v>11</v>
@@ -73870,7 +73870,7 @@
     </row>
     <row r="563" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="14" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B563" s="14" t="s">
         <v>32</v>
@@ -73893,7 +73893,7 @@
     </row>
     <row r="564" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="14" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B564" s="14" t="s">
         <v>32</v>
@@ -73916,7 +73916,7 @@
     </row>
     <row r="565" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B565" s="14" t="s">
         <v>127</v>
@@ -73939,7 +73939,7 @@
     </row>
     <row r="566" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="14" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B566" s="14" t="s">
         <v>9</v>
@@ -73985,7 +73985,7 @@
     </row>
     <row r="568" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="14" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B568" s="14" t="s">
         <v>32</v>
@@ -74008,7 +74008,7 @@
     </row>
     <row r="569" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="14" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B569" s="14" t="s">
         <v>32</v>
@@ -74031,7 +74031,7 @@
     </row>
     <row r="570" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="14" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B570" s="14" t="s">
         <v>32</v>
@@ -74054,7 +74054,7 @@
     </row>
     <row r="571" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="14" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B571" s="14" t="s">
         <v>32</v>
@@ -74077,7 +74077,7 @@
     </row>
     <row r="572" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="14" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B572" s="14" t="s">
         <v>32</v>
@@ -74100,7 +74100,7 @@
     </row>
     <row r="573" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="14" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B573" s="14" t="s">
         <v>9</v>
@@ -74146,7 +74146,7 @@
     </row>
     <row r="575" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="14" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B575" s="14" t="s">
         <v>11</v>
@@ -74169,7 +74169,7 @@
     </row>
     <row r="576" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="14" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B576" s="14" t="s">
         <v>32</v>
@@ -74192,7 +74192,7 @@
     </row>
     <row r="577" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="14" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B577" s="14" t="s">
         <v>32</v>
@@ -74215,7 +74215,7 @@
     </row>
     <row r="578" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="14" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B578" s="14" t="s">
         <v>127</v>
@@ -74238,7 +74238,7 @@
     </row>
     <row r="579" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="14" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B579" s="14" t="s">
         <v>127</v>
@@ -74261,7 +74261,7 @@
     </row>
     <row r="580" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B580" s="14" t="s">
         <v>9</v>
@@ -74284,7 +74284,7 @@
     </row>
     <row r="581" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="14" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B581" s="14" t="s">
         <v>9</v>
@@ -74307,7 +74307,7 @@
     </row>
     <row r="582" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="14" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B582" s="14" t="s">
         <v>113</v>
@@ -74330,7 +74330,7 @@
     </row>
     <row r="583" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="14" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B583" s="14" t="s">
         <v>11</v>
@@ -74353,7 +74353,7 @@
     </row>
     <row r="584" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="14" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B584" s="14" t="s">
         <v>11</v>
@@ -74376,7 +74376,7 @@
     </row>
     <row r="585" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="14" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B585" s="14" t="s">
         <v>11</v>
@@ -74399,7 +74399,7 @@
     </row>
     <row r="586" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="14" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B586" s="14" t="s">
         <v>32</v>
@@ -74422,7 +74422,7 @@
     </row>
     <row r="587" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="14" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B587" s="14" t="s">
         <v>32</v>
@@ -74445,7 +74445,7 @@
     </row>
     <row r="588" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="14" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B588" s="14" t="s">
         <v>32</v>
@@ -74468,7 +74468,7 @@
     </row>
     <row r="589" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="14" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B589" s="14" t="s">
         <v>9</v>
@@ -74491,7 +74491,7 @@
     </row>
     <row r="590" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="14" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B590" s="14" t="s">
         <v>113</v>
@@ -74514,7 +74514,7 @@
     </row>
     <row r="591" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="14" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B591" s="14" t="s">
         <v>11</v>
@@ -74537,7 +74537,7 @@
     </row>
     <row r="592" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="14" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B592" s="14" t="s">
         <v>11</v>
@@ -74560,7 +74560,7 @@
     </row>
     <row r="593" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="14" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B593" s="14" t="s">
         <v>11</v>
@@ -74583,7 +74583,7 @@
     </row>
     <row r="594" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="14" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B594" s="14" t="s">
         <v>11</v>
@@ -74606,7 +74606,7 @@
     </row>
     <row r="595" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="14" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B595" s="14" t="s">
         <v>32</v>
@@ -74629,7 +74629,7 @@
     </row>
     <row r="596" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="14" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B596" s="14" t="s">
         <v>32</v>
@@ -74652,7 +74652,7 @@
     </row>
     <row r="597" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="14" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B597" s="14" t="s">
         <v>32</v>
@@ -74675,7 +74675,7 @@
     </row>
     <row r="598" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="14" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B598" s="14" t="s">
         <v>32</v>
@@ -74698,7 +74698,7 @@
     </row>
     <row r="599" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="14" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B599" s="14" t="s">
         <v>32</v>
@@ -74721,7 +74721,7 @@
     </row>
     <row r="600" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="14" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B600" s="14" t="s">
         <v>9</v>
@@ -74744,7 +74744,7 @@
     </row>
     <row r="601" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="14" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B601" s="14" t="s">
         <v>32</v>
@@ -74767,7 +74767,7 @@
     </row>
     <row r="602" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="14" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B602" s="14" t="s">
         <v>32</v>
@@ -74790,7 +74790,7 @@
     </row>
     <row r="603" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="14" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B603" s="14" t="s">
         <v>32</v>
@@ -74813,7 +74813,7 @@
     </row>
     <row r="604" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="14" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B604" s="14" t="s">
         <v>32</v>
@@ -74836,7 +74836,7 @@
     </row>
     <row r="605" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="14" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B605" s="14" t="s">
         <v>127</v>
@@ -74859,7 +74859,7 @@
     </row>
     <row r="606" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B606" s="14" t="s">
         <v>127</v>
@@ -74882,7 +74882,7 @@
     </row>
     <row r="607" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="14" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B607" s="14" t="s">
         <v>9</v>
@@ -74905,7 +74905,7 @@
     </row>
     <row r="608" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="14" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B608" s="14" t="s">
         <v>9</v>
@@ -74951,7 +74951,7 @@
     </row>
     <row r="610" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="14" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B610" s="14" t="s">
         <v>11</v>
@@ -74974,7 +74974,7 @@
     </row>
     <row r="611" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="14" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B611" s="14" t="s">
         <v>11</v>
@@ -74997,7 +74997,7 @@
     </row>
     <row r="612" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="14" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B612" s="14" t="s">
         <v>11</v>
@@ -75043,7 +75043,7 @@
     </row>
     <row r="614" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="14" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B614" s="14" t="s">
         <v>32</v>
@@ -75066,7 +75066,7 @@
     </row>
     <row r="615" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="14" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B615" s="14" t="s">
         <v>32</v>
@@ -75089,7 +75089,7 @@
     </row>
     <row r="616" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="14" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B616" s="14" t="s">
         <v>32</v>
@@ -75112,7 +75112,7 @@
     </row>
     <row r="617" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="14" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B617" s="14" t="s">
         <v>127</v>
@@ -75135,7 +75135,7 @@
     </row>
     <row r="618" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="14" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B618" s="14" t="s">
         <v>9</v>
@@ -75158,7 +75158,7 @@
     </row>
     <row r="619" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="14" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B619" s="14" t="s">
         <v>9</v>
@@ -75204,7 +75204,7 @@
     </row>
     <row r="621" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="14" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B621" s="14" t="s">
         <v>113</v>
@@ -75227,7 +75227,7 @@
     </row>
     <row r="622" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="14" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B622" s="14" t="s">
         <v>113</v>
@@ -75250,7 +75250,7 @@
     </row>
     <row r="623" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="14" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B623" s="14" t="s">
         <v>11</v>
@@ -75273,7 +75273,7 @@
     </row>
     <row r="624" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="14" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B624" s="14" t="s">
         <v>11</v>
@@ -75296,7 +75296,7 @@
     </row>
     <row r="625" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="14" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B625" s="14" t="s">
         <v>11</v>
@@ -75319,7 +75319,7 @@
     </row>
     <row r="626" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="14" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B626" s="14" t="s">
         <v>50</v>
@@ -75342,7 +75342,7 @@
     </row>
     <row r="627" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="14" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B627" s="14" t="s">
         <v>32</v>
@@ -75365,7 +75365,7 @@
     </row>
     <row r="628" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="14" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B628" s="14" t="s">
         <v>32</v>
@@ -75388,7 +75388,7 @@
     </row>
     <row r="629" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="14" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B629" s="14" t="s">
         <v>32</v>
@@ -75411,7 +75411,7 @@
     </row>
     <row r="630" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="14" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B630" s="14" t="s">
         <v>32</v>
@@ -75434,7 +75434,7 @@
     </row>
     <row r="631" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="14" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B631" s="14" t="s">
         <v>32</v>
@@ -75457,7 +75457,7 @@
     </row>
     <row r="632" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="14" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B632" s="14" t="s">
         <v>9</v>
@@ -75480,7 +75480,7 @@
     </row>
     <row r="633" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="14" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B633" s="14" t="s">
         <v>9</v>
@@ -75503,7 +75503,7 @@
     </row>
     <row r="634" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="14" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B634" s="14" t="s">
         <v>9</v>
@@ -75526,7 +75526,7 @@
     </row>
     <row r="635" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="14" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B635" s="14" t="s">
         <v>9</v>
@@ -75572,7 +75572,7 @@
     </row>
     <row r="637" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="14" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B637" s="14" t="s">
         <v>32</v>
@@ -75595,7 +75595,7 @@
     </row>
     <row r="638" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="14" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B638" s="14" t="s">
         <v>32</v>
@@ -75618,7 +75618,7 @@
     </row>
     <row r="639" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="14" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B639" s="14" t="s">
         <v>32</v>
@@ -75641,7 +75641,7 @@
     </row>
     <row r="640" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="14" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B640" s="14" t="s">
         <v>32</v>
@@ -75664,7 +75664,7 @@
     </row>
     <row r="641" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="14" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B641" s="14" t="s">
         <v>9</v>
@@ -75687,7 +75687,7 @@
     </row>
     <row r="642" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="14" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B642" s="14" t="s">
         <v>9</v>
@@ -75710,7 +75710,7 @@
     </row>
     <row r="643" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="14" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B643" s="14" t="s">
         <v>9</v>
@@ -75733,7 +75733,7 @@
     </row>
     <row r="644" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="14" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B644" s="14" t="s">
         <v>9</v>
@@ -75756,7 +75756,7 @@
     </row>
     <row r="645" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="14" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B645" s="14" t="s">
         <v>386</v>
@@ -75825,7 +75825,7 @@
     </row>
     <row r="648" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="14" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B648" s="14" t="s">
         <v>32</v>
@@ -75848,7 +75848,7 @@
     </row>
     <row r="649" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="14" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B649" s="14" t="s">
         <v>32</v>
@@ -75871,7 +75871,7 @@
     </row>
     <row r="650" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="14" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B650" s="14" t="s">
         <v>9</v>
@@ -75894,7 +75894,7 @@
     </row>
     <row r="651" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="14" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B651" s="14" t="s">
         <v>9</v>
@@ -75917,7 +75917,7 @@
     </row>
     <row r="652" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="14" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B652" s="14" t="s">
         <v>11</v>
@@ -75963,7 +75963,7 @@
     </row>
     <row r="654" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="14" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B654" s="14" t="s">
         <v>32</v>
@@ -75986,7 +75986,7 @@
     </row>
     <row r="655" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="14" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B655" s="14" t="s">
         <v>32</v>
@@ -76032,7 +76032,7 @@
     </row>
     <row r="657" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="14" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B657" s="14" t="s">
         <v>32</v>
@@ -76055,7 +76055,7 @@
     </row>
     <row r="658" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="14" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B658" s="14" t="s">
         <v>32</v>
@@ -76078,7 +76078,7 @@
     </row>
     <row r="659" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="14" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B659" s="14" t="s">
         <v>9</v>
@@ -76124,7 +76124,7 @@
     </row>
     <row r="661" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="14" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B661" s="14" t="s">
         <v>32</v>
@@ -76147,7 +76147,7 @@
     </row>
     <row r="662" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B662" s="14" t="s">
         <v>32</v>
@@ -76170,7 +76170,7 @@
     </row>
     <row r="663" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="14" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B663" s="14" t="s">
         <v>32</v>
@@ -76216,7 +76216,7 @@
     </row>
     <row r="665" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="14" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B665" s="14" t="s">
         <v>9</v>
@@ -76239,7 +76239,7 @@
     </row>
     <row r="666" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="14" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B666" s="14" t="s">
         <v>9</v>
@@ -76262,7 +76262,7 @@
     </row>
     <row r="667" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="14" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B667" s="14" t="s">
         <v>9</v>
@@ -76285,7 +76285,7 @@
     </row>
     <row r="668" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="14" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B668" s="14" t="s">
         <v>32</v>
@@ -76308,7 +76308,7 @@
     </row>
     <row r="669" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="14" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B669" s="14" t="s">
         <v>32</v>
@@ -76331,7 +76331,7 @@
     </row>
     <row r="670" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="14" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B670" s="14" t="s">
         <v>32</v>
@@ -76354,7 +76354,7 @@
     </row>
     <row r="671" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="14" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B671" s="14" t="s">
         <v>32</v>
@@ -76400,7 +76400,7 @@
     </row>
     <row r="673" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="14" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B673" s="14" t="s">
         <v>9</v>
@@ -76423,7 +76423,7 @@
     </row>
     <row r="674" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="14" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B674" s="14" t="s">
         <v>9</v>
@@ -76492,7 +76492,7 @@
     </row>
     <row r="677" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="14" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B677" s="14" t="s">
         <v>32</v>
@@ -76515,7 +76515,7 @@
     </row>
     <row r="678" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="14" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B678" s="14" t="s">
         <v>32</v>
@@ -76538,7 +76538,7 @@
     </row>
     <row r="679" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="14" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B679" s="14" t="s">
         <v>9</v>
@@ -76561,7 +76561,7 @@
     </row>
     <row r="680" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B680" s="14" t="s">
         <v>9</v>
@@ -76584,7 +76584,7 @@
     </row>
     <row r="681" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="14" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B681" s="14" t="s">
         <v>9</v>
@@ -76607,7 +76607,7 @@
     </row>
     <row r="682" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="14" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B682" s="14" t="s">
         <v>11</v>
@@ -76653,7 +76653,7 @@
     </row>
     <row r="684" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="14" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B684" s="14" t="s">
         <v>32</v>
@@ -76676,7 +76676,7 @@
     </row>
     <row r="685" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="14" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B685" s="14" t="s">
         <v>9</v>
@@ -76722,7 +76722,7 @@
     </row>
     <row r="687" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="14" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B687" s="14" t="s">
         <v>9</v>
@@ -76745,7 +76745,7 @@
     </row>
     <row r="688" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="14" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B688" s="14" t="s">
         <v>9</v>
@@ -76768,7 +76768,7 @@
     </row>
     <row r="689" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="14" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B689" s="14" t="s">
         <v>11</v>
@@ -76837,7 +76837,7 @@
     </row>
     <row r="692" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="14" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B692" s="14" t="s">
         <v>32</v>
@@ -76860,7 +76860,7 @@
     </row>
     <row r="693" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="14" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B693" s="14" t="s">
         <v>32</v>
@@ -76883,7 +76883,7 @@
     </row>
     <row r="694" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="14" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B694" s="14" t="s">
         <v>32</v>
@@ -76906,7 +76906,7 @@
     </row>
     <row r="695" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="14" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B695" s="14" t="s">
         <v>9</v>
@@ -76929,7 +76929,7 @@
     </row>
     <row r="696" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="14" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B696" s="14" t="s">
         <v>9</v>
@@ -76952,7 +76952,7 @@
     </row>
     <row r="697" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="14" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B697" s="14" t="s">
         <v>9</v>
@@ -76975,7 +76975,7 @@
     </row>
     <row r="698" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="14" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B698" s="14" t="s">
         <v>11</v>
@@ -76998,7 +76998,7 @@
     </row>
     <row r="699" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="14" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B699" s="14" t="s">
         <v>32</v>
@@ -77044,7 +77044,7 @@
     </row>
     <row r="701" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="14" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B701" s="14" t="s">
         <v>9</v>
@@ -77067,7 +77067,7 @@
     </row>
     <row r="702" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="14" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B702" s="14" t="s">
         <v>32</v>
@@ -77274,7 +77274,7 @@
     </row>
     <row r="711" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="14" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B711" s="14" t="s">
         <v>108</v>
@@ -77389,7 +77389,7 @@
     </row>
     <row r="716" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="14" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B716" s="14" t="s">
         <v>32</v>
